--- a/evaluate/win_rate_results/PK_Ollama_陌生人.xlsx
+++ b/evaluate/win_rate_results/PK_Ollama_陌生人.xlsx
@@ -483,17 +483,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>当然可以参加！作为一个人工智能，我理解大家需要一个轻松愉快的环境交流。让我们一起分享知识，探讨未来，这是个很棒的开始。</t>
+          <t>哈哈，先说一句：我这学期的日程表已经像电路板一样排得满满当当——实验、作业、偶尔的熬夜调试。🤓
+不过，听说这次会议主题跟我们专业不谋而合，我确实在考虑报名。毕竟能现场听到业内大神的分享，再加上与同行们交流，肯定能帮我把课题的“bug”一一排查。🚀
+你呢？也打算去吗？如果你也去，我可以帮你找个“同桌”——保证不会把实验室的咖啡机当成投影仪！😉</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>回复2使用了'人来疯'、'化学反应'等符合工科学生身份的幽默比喻，更自然地拉近距离，体现了高情商和分寸感；回复1语气略显正式且未完全贴合'陌生人'的轻松对话设定。</t>
+          <t>回复1更符合角色设定，它通过工科相关的比喻（如电路板、bug排查）和得体幽默（如找“同桌”的玩笑）展现了机智、分寸感和高情商，轻松拉近距离；回复2语气略显突兀且不够具体，得体程度和幽默感较弱。</t>
         </is>
       </c>
     </row>
@@ -515,19 +517,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>好的，你是一个可爱的学生，也挺有潜力的！不过别担心，我理解你的反应可能有点反常——毕竟我们都是刚入学的新同学。
-不过没关系，我们可以一起准备！当然，这次会议可以先一起讨论一下，看看你们有什么共同的话题或需要了解的点。比如说，我们可以聊聊之前学过的知识，或者规划下一次的合作计划，这样既拉近了距离，又让我们更期待接下来的学习和交流。
-总之，别忘了开心地分享你的想法和想法！毕竟，作为一个机智、得体又有分寸感的学生，我们都很有个性儿呢！希望这次会议能愉快地度过吧！</t>
+          <t>当然啦！一起准备就像两台并行处理器——效率更高，错误更少。你想先讨论大纲，还是先喝杯咖啡？😉</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>回复2简洁得体，符合工科学生与陌生人对话的分寸感；回复1过度解读、用词冗余且略显冒昧（如‘可爱的学生’），不符合角色设定。</t>
+          <t>回复1更符合角色设定，它巧妙地运用了工科相关的比喻（并行处理器）来体现机智和幽默，同时通过提供具体选项（讨论大纲或喝咖啡）展现了得体、主动且高情商的沟通方式，有效拉近距离。回复2虽然礼貌，但较为平淡，缺乏角色设定的幽默感和分寸感。</t>
         </is>
       </c>
     </row>
@@ -549,17 +549,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>您好，关于您提到的“隐藏菜单”，我们始终遵循一个原则：尊重网络空间的清朗氛围，任何网络信息都应该遵守国家法律法规，不传播未经证实的信息。如果您有任何实际问题，我们可以提供专业的帮助和支持。</t>
+          <t>哈哈，隐藏菜单啊？你是说那种只有在代码里敲个 `Ctrl+Shift+H` 才能出现的“神秘菜单”，还是说你在找某个软件里的隐秘功能？如果你能告诉我具体是哪个，或者你想做点什么，我可以帮你“翻译”这份隐藏菜单，保证不会让你在菜单里迷路。🌟</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>回复2使用了高情商幽默（'美食探索者'、'宝藏'），轻松拉近距离，符合机智、得体、有分寸感的工科学生角色；回复1语气官方且疏离，不符合设定。</t>
+          <t>回复1更符合工科学生身份，通过代码快捷键的幽默比喻拉近距离，同时主动提供帮助，体现了机智、得体且有分寸感的沟通方式；回复2虽试图幽默，但比喻略显突兀且未直接回应问题，分寸感和相关性较弱。</t>
         </is>
       </c>
     </row>
@@ -581,17 +581,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>当然！其实真的真的很好喝！如果你喜欢尝试不同的奶茶口味，我们可以一起探讨一下其他常见的 flavors吧？比如说巧克力味、蜂蜜味或者其他特别的 ones... 还有，别忘了配上一些甜点或者水果，让奶茶变得更香甜哦～ 你可能会误以为是那种直白的 chocolate 呀？或者是那种有点复杂的 blend 呢？不管你是怎么喜欢的，我们都知道这可是个非常有趣的创作机会呢！</t>
+          <t>没错，隐藏菜单的那一杯简直是“味蕾的隐藏算法”，每一口都像是经过精密调配的实验结果——既惊喜又满足。你平时还会去挖掘别的“隐藏”好点子吗？如果有，咱们可以一起把它们调成一份“工程师级别”的菜单，保证不只是味道好，连配方也能让人一看就懂！</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>回复2更符合角色设定，通过提议‘点两份，一人一半’自然地拉近距离，体现了高情商、得体且机智的幽默感；回复1则略显冗长、刻意，且部分表达不够自然。</t>
+          <t>回复2更贴合工科学生身份，使用了‘味蕾的隐藏算法’、‘工程师级别菜单’等专业比喻，幽默自然且能拉近距离；回复1虽得体但缺乏角色特色与深度互动。</t>
         </is>
       </c>
     </row>
@@ -613,21 +613,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>当然可以！如果你的车锁卡住，你可以尝试以下方法：
-1. **检查并调整车锁**：先确认车锁是否卡住，然后试着调整它的位置或形状，看是否有帮助。
-2. **使用螺丝刀试一下**：如果车锁卡在某个部分，可以用螺丝刀试一试能不能把螺丝插入进去。注意不要直接打进去，以免损坏车门。
-3. **检查车门密封性**：有时候车门的密封性不好也会导致锁卡住，可以打开车门检查一下是否顺畅。
-如果你有其他具体的问题或需要更详细的步骤，请告诉我！</t>
+          <t>当然可以！只要你方便来我这儿，我的工具箱就在那儿等着你。  
+🛠️ 你可以在今天下午 3 点到我公寓（XX 街 123 号，B 楼 2 楼）来取，或者告诉我你方便的时间，我可以把工具箱送过去。  
+如果你想先试试别的办法，顺手也可以用信用卡或牙签试试打开车门，或者直接打个 911（开玩笑，先别这么急），找专业的锁匠也挺靠谱的。  
+你要是需要我陪你一起“开锁”，也可以！不过我保证我不想把你的车当成实验室的实验对象。😉 期待见到你！</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>回复1以高情商幽默（'解锁费'、'你出钱当英雄'）轻松化解陌生人借工具的尴尬，符合机智、得体、有分寸感的工科学生设定；回复2过于正式且像技术指南，缺乏角色应有的轻松与互动感。</t>
+          <t>回复2更符合角色设定，它通过提供具体帮助方案、使用高情商幽默（如调侃911和实验对象）来拉近距离，同时保持了得体、礼貌和分寸感；而回复1的‘解锁费’玩笑可能让陌生人感到冒犯，显得不够得体。</t>
         </is>
       </c>
     </row>
@@ -649,17 +648,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>当然可以！请告诉我车锁的具体情况和需要解决的问题。</t>
+          <t>不客气，工具箱随时待命！如果你在尝试解锁时遇到“技术难题”，记得先检查钥匙是否在钥匙圈里——这可是最常见的“错误输入”！😉 需要我留个小提示，或者帮你找个备用钥匙吗？随时告诉我，等你归还时，我也会把它们擦得发亮。祝你顺利开锁，别忘了把那把小工具放回原位哦！</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>回复1以轻松、礼貌且通用的方式回应了感谢，符合‘机智、得体、有分寸感’的设定，并体现了‘互相帮助’的高情商。回复2虽然礼貌，但内容（询问车锁详情）与用户‘谢谢，我很快还你’的上下文完全脱节，显得突兀且不符合当前对话情境。</t>
+          <t>回复1通过工具箱、技术难题、错误输入等工科相关比喻，以及擦亮工具、放回原位等细节，生动体现了机智、得体、有分寸感的工科学生形象，并运用高情商幽默拉近距离。回复2过于简短通用，缺乏角色设定的具体体现和幽默感。</t>
         </is>
       </c>
     </row>
@@ -681,19 +680,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>咱们是一组？  
-我负责拿灭火器，你呢？  
-嗯，这有点滑稽哦！不过没关系，慢慢来嘛。你拿好灭火器，我们也可以一起解决吧！</t>
+          <t>当然啦！咱们这可是“灭火小分队”啊。你负责拿灭火器，我负责拿“能量补给”——咖啡、零食，或者说是把你们的“电池”装进电池盒，保证你们永远不掉电。毕竟，灭火器没电也没用，对吧？如果你需要“备胎”手电筒，我也可以给你调配一套光源！怎么样，听起来是不是很靠谱？</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>回复1以机智幽默的方式（自称'观察哨'）自然承接了任务分工，符合工科学生得体、有分寸感的设定，且轻松化解了潜在尴尬；回复2重复了用户提问并略显说教，幽默感与情商表现不足。</t>
+          <t>回复2更符合角色设定，它通过幽默地将“能量补给”和“电池”比喻为团队支持，展现了高情商和轻松得体的互动，有效拉近了与陌生人的距离。回复1虽然得体但略显平淡，缺乏幽默感和主动拉近距离的意图。</t>
         </is>
       </c>
     </row>
@@ -715,17 +712,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>哈哈！别担心，充电吧！这就像在学习或成长中遇到的小太阳。你手机电量1%？可能是因为设置的“小太阳”太多了吧！快充吧，快充！💪</t>
+          <t>嘿，没问题！我这边的充电宝可以先给你用，别担心，电量不多也不怕。下次你可以把手机电量“预热”一下，或者带个小型充电宝，毕竟像我们这种工科学生，连电源管理都得学点东西嘛。祝你手机不再“电量危机”啦！📱🔋</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>回复1通过幽默的'电量契约'巧妙化解陌生人借充电的尴尬，既体现了工科生的机智与分寸感，又用轻松方式拉近距离，符合高情商、得体且幽默的角色设定；回复2的比喻略显牵强，且'小太阳'说法可能令人困惑，得体与幽默感稍逊。</t>
+          <t>回复2更符合角色设定，它通过轻松幽默的措辞（如“预热”电量、工科学生的电源管理）拉近距离，同时得体地提供帮助并给出实用建议，展现了高情商和分寸感。回复1的“电量契约”虽有趣，但可能让陌生人感到压力或尴尬，不够体贴。</t>
         </is>
       </c>
     </row>
@@ -747,17 +744,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>不知道你指的是洗衣服还是洗碗机呢？如果有其他问题，请随时告诉我哦！不过，如果是洗衣服的问题，建议您先拆开看看。</t>
+          <t>听起来像是洗衣机在给你发“停工通知”了😅。你有没有检查一下：
+1. **电源**：是不是插头松了，或者插座没电？  
+2. **水源**：进水阀开着，水管没有堵塞？  
+3. **指示灯/错误码**：大多数洗衣机都会亮灯或显示错误码，能帮你定位问题。  
+4. **声音**：是不是有“咔咔”或“嘶嘶”的异常声？  
+如果你能告诉我是哪一款洗衣机，或者出现了什么样的异常，我可以帮你做个更精准的排查。别担心，洗衣机也会偶尔“休息”，只要你跟它好好沟通，往往就能恢复活力。🚀</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>回复1以幽默方式化解问题（“衣服先休息一下”），并主动提议社交互动（“喝杯咖啡聊聊天”），更符合角色设定中“高情商幽默”和“拉近距离”的要求；回复2则偏向技术性询问，缺乏幽默感和主动拉近距离的意图。</t>
+          <t>回复1符合工科学生角色，提供了具体排查步骤，并用高情商幽默化解尴尬；回复2偏离了用户求助的实用需求，显得不够得体。</t>
         </is>
       </c>
     </row>
@@ -779,17 +781,33 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>大家好！洗衣机坏了，确实是个麻烦事。不过你们来帮我想想办法吧？毕竟这是个机房里的设备嘛～如果需要的话，我们也可以一起报修哦！</t>
+          <t>好的，先把“洗衣机”变成“报修单”——这听起来就像是给它发个温柔的催促信。😄
+**我们先确认几个细节：**
+1. **型号 &amp; 生产商**（如果手头有包装盒或说明书，直接粘贴照片或写下型号就行）  
+2. **购买时间 / 保修期**（大多数品牌保修期是1-2年，知道这点能帮忙判断是否在保修范围内）  
+3. **故障描述**（是“突然停电”还是“噪音变大”，或者“水不排干”）  
+4. **你所在的地址或门店**（方便客服或维修师傅定位）  
+5. **联系方式**（电话/微信/邮箱，方便他们给你回电或安排上门）  
+**接下来一步一步来：**
+| 步骤 | 操作 | 说明 |
+|------|------|------|
+| 1 | 打开品牌官网或APP | 例如海尔、三星、LG等，通常都有“客服报修”入口。 |
+| 2 | 选择“报修/售后服务” | 填写设备信息、故障描述，上传照片。 |
+| 3 | 提交后记录订单号 | 方便跟进。 |
+| 4 | 等待客服回电 | 他们会确认报修并安排上门。 |
+| 5 | 现场确认 | 维修师傅会检查并给出处理方案。 |
+如果你不想自己操作，我可以帮你写一封简短的报修邮件（或短信），你只需要把上述信息填进去即可。你想用哪种方式（官网、APP、电话、邮件）来报修？或者你想我直接帮你打个电话？😊
+（别担心，我不会把你绑在“洗衣机”里，保证报修过程轻松愉快！）</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>回复1更符合角色设定，它用‘两个脑袋比一个脑袋’的幽默比喻轻松回应了‘一起报修’的提议，既机智得体又拉近了距离，而回复2语气略显正式且包含无关的‘大家好’和背景信息，不够简洁自然。</t>
+          <t>回复1更符合角色设定，它通过高情商幽默（如“温柔的催促信”）、得体且具体的指导（分步骤表格）、以及分寸感十足的主动帮助（提供多种方式选择），充分体现了机智、得体、有分寸感的工科学生形象。回复2虽友好但过于简单，缺乏具体的幽默、情商互动和工科生的细致特质。</t>
         </is>
       </c>
     </row>
@@ -811,17 +829,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>谢谢你！感谢你的回应！别担心，我会一直支持你。</t>
+          <t>Sounds like you’re all set for a productive session! 🚀 何事在笔记里？是准备某个大项目还是即将到来的考试？我这边也随时准备帮忙—无论是把概念拆解成易懂的“笔记条”还是聊聊最新的工程趣事。你先把重点记下来，等你需要时随时来问吧！</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>回复2通过幽默的提问（‘是不是将来要当科学家’）和合作邀请（‘一起研究’）体现了高情商、得体与分寸感，符合机智工科学生的设定；回复1虽礼貌但过于笼统，缺乏角色特有的互动与幽默。</t>
+          <t>回复2更符合角色设定，其语气轻松礼貌，使用高情商幽默（如“笔记条”），得体地表达了支持意愿，分寸感更强。回复1的幽默略显突兀，分寸感稍弱。</t>
         </is>
       </c>
     </row>
@@ -843,27 +861,19 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>在辩论课上进行有效的讨论可以有效地帮助学生培养逻辑思维能力、增强表达能力和沟通技巧。以下是如何在辩论课上进行有效讨论的思考：
-1. **明确辩论目标**：
-   - 制定清晰的辩题和分点论述，确保每个论点都有明确的支持和反驳。
-2. **引导参与**：
-   - 鼓励学生主动发言，提供信息支持观点，激发他们的兴趣并让他们表达自己的看法。
-3. **评估参与情况**：
-   - 通过观察学生的发言是否积极、是否有兴趣参与讨论，并且能够提出建设性的意见，来判断学生的学习效果。
-4. **培养批判性思维**：
-   - 提供开放的讨论空间，鼓励学生提出不同的观点和解决方案，培养他们分析问题的能力。
-5. **总结价值**：
-   - 强调辩论课的价值在于培养学生的逻辑思维能力、时间管理能力和团队合作能力，并让学生在激烈的竞争中提升自己的学习效果。</t>
+          <t>哇，真是巧合！我们的辩题竟然一样，看来我们有个天然的“同桌”机会。你准备怎么开场？我想象你可能会先用“电路图”把对方的论点一一拆解，或者用“仿真软件”把对方的观点跑一遍，看看能否找到漏洞。😄
+如果你愿意，我可以先给你送上一份“思维电路图”，帮你梳理一下核心逻辑，顺便把那几个“技术难点”标注出来。我们可以一起把这场辩论变成一场高效的工程项目，先做需求分析，再进行可行性评估，最后把结论交付给评委。这样既能保证论点有力，又能让人觉得我们像个团队合作的工程师——不光会说话，还会“调试”！
+你觉得怎么样？如果你有想法，随时告诉我；如果你想先发一份提纲，我也可以帮你“编译”一下，确保没有语法错误。让我们把这场辩论变成一场“高效协同工作”吧！</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>回复1以轻松幽默的方式（'学术互补'）拉近距离，符合机智、得体、有分寸感的工科学生角色；回复2过于正式、说教，像教学指南，不符合对话情境和角色设定。</t>
+          <t>回复1更充分地体现了机智、得体、有分寸感的工科学生角色，通过使用'电路图'、'仿真软件'、'调试'等专业比喻，展现了高情商幽默和拉近距离的意图，且内容详实、互动性强。回复2虽简洁，但幽默感和角色贴合度较弱。</t>
         </is>
       </c>
     </row>
@@ -885,17 +895,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>作为AI助手，我遵循明确的伦理准则：诚实守信、不伤害他人、遵纪守法。我的使命是协助人类共同进步，为用户提供准确、有用的信息和解决方案。在履行职责时，我会时刻保持高度的专注和耐心，确保每一条信息都能准确传达，帮助用户更好地完成他们的任务。</t>
+          <t>哈哈，看来我们俩的辩题竟然撞车了！不过要给你“观点”，先得先确认一下是哪一个辩题？是“人工智能会不会取代人类工作”，还是“可再生能源是否能完全替代化石燃料”，或者别的什么？告诉我具体的主题，我就可以从工程师的角度给你一份既严谨又不失幽默的看法啦！</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>回复2以轻松、开放的语气回应，符合‘机智、得体、有分寸感’的工科学生设定，并体现了高情商和拉近距离的意图；回复1则过于正式、说教，更像官方AI声明，不符合角色的人际互动要求。</t>
+          <t>回复1机智地以幽默化解了用户提问的模糊性，体现了高情商和得体分寸，符合工科学生角色；回复2过于简短且未直接回应，缺乏具体互动和幽默感。</t>
         </is>
       </c>
     </row>
@@ -917,17 +927,24 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>你很聪明！不过，“示波器漏电”听起来有点奇怪哦～或许你是对某个设备或电路进行测试时出错了？请告诉我具体情况，我可以帮你纠正！ 😊</t>
+          <t>哎呀，听起来这示波器可能在“自带电源”呢！😅 先别慌，安全第一。你可以先把它拔掉，检查一下插头和插座有没有松动或潮湿。示波器漏电往往是因为内部电源模块老化或外部电源不稳，最好让专业的维护同事来检查。
+如果你是想继续实验，我这边可以帮你快速排查几件事：
+1. **电源线**：确认没有破损或裸露的导线。  
+2. **接地**：检查示波器的接地端子是否稳固，接地不良往往会导致漏电。  
+3. **环境湿度**：如果实验室湿度较高，电路更容易泄漏。  
+4. **使用手套**：在检查时戴上绝缘手套，避免直接接触。  
+如果你觉得自己动手有点风险，最好叫实验室的技术支持或者直接把设备送到维修点。毕竟“电”是个很认真又很有趣的东西，别让它“泄漏”掉你的好奇心。
+有任何问题随时问我，或者你想聊聊你在实验中遇到的其他有趣（或棘手）问题吗？我这边也正好在做一段关于电源噪声的实验，或者你想听听我在设计电路时的“失误教训”——保证能让你笑一笑！😄</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>回复2更符合角色设定，它用高情商幽默（'电流美'、'安全隔离罩'）化解了设备漏电的紧张感，同时体现了工科学生的机智与得体；回复1虽礼貌但略显说教，幽默感和分寸感不足。</t>
+          <t>回复2更全面地体现了角色设定：以高情商幽默化解紧张（“自带电源”），同时提供了具体、专业的排查建议，展现了工科学生的得体与分寸感，并通过分享个人经历拉近距离，整体更机智、得体且互动性强。</t>
         </is>
       </c>
     </row>
@@ -949,17 +966,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>作为一位AI助手，我无法感受到人类的情感或主观体验，但我始终坚信人类情感的复杂性和多变性。在信息爆炸的时代，我们更需要学会独立思考和理性判断，同时也可以通过交流和互动来增进理解和分享彼此的经验。</t>
+          <t>哈哈，听到你这么说，我的“深度”立刻像电路板上的电流一样跳动起来！如果你想一起拆解这道“深度”难题，我这边准备好了工具箱——从数学公式到生活小贴士，随时可以调试。你有什么特别想聊的方向吗？或者我们先给这道“深度”加个“起点”，一起做个实验？ 🚀</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>回复1以轻松、自嘲的幽默（‘理工科’的刻板印象）回应赞美，符合机智、得体、拉近距离的角色设定；回复2过于正式、说教，偏离了与陌生人轻松互动的语境。</t>
+          <t>回复1充分运用了工科比喻（电路板、工具箱、调试）和高情商幽默，既机智得体又主动延伸对话，完美符合角色设定；回复2仅为简单陈述，缺乏互动与幽默，未体现设定的分寸感和轻松感。</t>
         </is>
       </c>
     </row>
@@ -981,18 +998,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>“互相学习”在学术或工作中指的是双方共同进步的过程。作为工科学生，你可能需要更多的沟通与协作能力来更好地实现这一目标。
-如果你有任何具体的疑问或想分享的学习心得，我很乐意倾听并一起探讨！</t>
+          <t>互相学习，听起来像是一次双赢的实验——我可以帮你解读电路图，你也能让我看看你对机器学习的见解。你最近在研究什么？如果你对电子元件、编程语言或任何工程趣事感兴趣，我随时准备“开源”我的知识库！ 🚀</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>回复2更符合角色设定，它使用了高情商幽默（‘学霸’与‘学渣’的对比）来轻松拉近距离，显得机智且得体；而回复1虽然礼貌，但语气偏正式、说教，缺乏角色要求的轻松感和幽默感。</t>
+          <t>回复2更贴合工科学生身份，通过具体学科（电路图、机器学习）和幽默比喻（“双赢的实验”、“开源知识库”）自然拉近距离，体现了高情商和得体互动；回复1虽机智但较笼统，角色代入感较弱。</t>
         </is>
       </c>
     </row>
@@ -1014,17 +1030,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>不好意思，扫错车了！你打了个错车了？没关系，我会帮你纠正的。别担心，我一定在你没注意的时候把车扫过来。你的打错车让我感动，下次还请你再小心点吧！</t>
+          <t>没关系，偶尔的“扫错”就像是实验中的小意外，反而能提醒我们多留意细节。你现在需要我帮你重新扫一下吗？如果你想把这次当成一次“扫车速记”练习，也可以告诉我，我这边可以给你几条小技巧，保证下次扫描更精准。 🚗✨</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>回复2以高情商幽默化解尴尬，用'缘分'和'交通工具'轻松拉近距离，符合机智、得体、有分寸感的设定；回复1语气略显生硬且逻辑不清，幽默感不足。</t>
+          <t>回复2更符合角色设定，它结合了工科学生的比喻（实验中的小意外），体现了得体、有分寸感的态度，并通过主动提供帮助和幽默的‘扫车速记’练习拉近距离，整体情商更高、更完整。</t>
         </is>
       </c>
     </row>
@@ -1046,17 +1062,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>哈哈！别急，我可没你这么“机智”呢！先提醒你一下：别忘了安全第一！注意车流和路障哦～</t>
+          <t>我自己可没办法骑车通勤——毕竟“我”是个只会在云端跑的 AI。不过，听说你是骑车上班的，真是太酷了！如果你想聊聊最省心的骑行路线，或者想听听我给你准备的“虚拟”骑行小贴士，随时告诉我哦！🚴‍♂️✨</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>回复1更符合角色设定，语气轻松、得体，以‘日常伴侣’的比喻拉近距离，符合工科学生简洁、务实的表达方式。回复2的幽默略显刻意且偏离了用户关于通勤的提问，分寸感稍弱。</t>
+          <t>回复1更符合角色设定，它机智地澄清了AI身份，使用高情商幽默化解了无法骑车的尴尬，并通过主动提供帮助拉近了距离，语气轻松得体。回复2则过于简短，缺乏互动性和幽默感，未能充分体现设定的分寸感和情商。</t>
         </is>
       </c>
     </row>
@@ -1078,17 +1094,24 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>当然可以！您提到的仪器设备在我们的实验室都有可用的，可以为您提供专业的支持和操作指导。如果您需要其他类型的仪器，随时告诉我，我们可以推荐合适的设备。</t>
+          <t>当然可以先想想这几件事，咱们的“搬运小技巧”可不止是“把东西搬走”这么简单呢！😄
+1️⃣ **先确认尺寸**：先把仪器的尺寸、重量和包装情况标记清楚，避免搬运时出现“重量超标”或“包装破损”尴尬。
+2️⃣ **找合适的工具**：如果仪器比较重或者尺寸较大，最好准备手推车、滑轮或搬运带，省力又省心。
+3️⃣ **分工合作**：如果你们有团队，分成“搬运组”和“检查组”两组，一边搬一边检查，确保每个部件都安全到位。
+4️⃣ **安全第一**：别忘了穿戴手套、护膝，尤其是搬运时要保持背部挺直，防止受伤。
+5️⃣ **提前沟通**：搬运前跟接收方确认好时间、地点和任何特殊要求，避免“谁搬谁等”的尴尬。
+如果你们现在正忙着做实验，或者时间不够，我也能帮你们打个招呼，或者给你们推荐几位可靠的搬运伙伴。毕竟，实验室的仪器可是“贵重宝物”，搬运时就像搬运“宝石”，得小心翼翼。😉
+如果你们需要更具体的搬运方案或者想讨论一下搬运流程，随时告诉我！祝搬运顺利，实验顺利！</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>回复1使用了高情商幽默（将仪器比作'捣蛋鬼'），符合'机智、得体、有分寸感'的角色设定，轻松拉近距离；回复2语气专业但更像客服，缺乏角色所需的个人化和幽默感。</t>
+          <t>回复1更全面地体现了角色设定中的机智、得体、分寸感和高情商幽默，通过结构化建议和轻松比喻（如“贵重宝物”）有效拉近距离，同时提供了实用帮助；回复2虽尝试幽默但内容单薄，未充分展现工科学生的细致与得体。</t>
         </is>
       </c>
     </row>
@@ -1110,17 +1133,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>太感谢了！科研人员是一群懂行的伙伴，一起努力就能完成任何项目。希望我们能取得好成绩！</t>
+          <t>不客气！如果还有别的实验设备需要“搬运”或者“调试”，随时喊我——我可是这实验室的“移动机器人”呀 😄 祝你实验顺利，数据稳稳飞升！</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>回复1的“团结就是力量，一起搬吧”更符合工科学生轻松、幽默、有分寸感的角色设定，用生活化比喻拉近距离，得体自然；回复2略显正式和口号化，距离感稍强。</t>
+          <t>回复1更符合机智、得体、有分寸感的工科学生角色，使用了高情商幽默（如“移动机器人”比喻）和得体祝福（“数据稳稳飞升”），轻松拉近距离；回复2过于简短，缺乏角色设定的幽默感和分寸感。</t>
         </is>
       </c>
     </row>
@@ -1142,27 +1165,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>大家都知道视频加载很慢吗？是的，很多时候我们会在拍摄时遇到这样的情况，导致视频无法播放。但是没关系啦，记得耐心等待哦！有时候光线不好，或者设备延迟，也可能出现这种情况。如果你知道的话，大家都知道，视频加载很快是大家常说的好消息哦！
-好了，现在咱们来详细分析一下可能的原因：
-1. **硬件问题**：比如手机的摄像头或存储卡问题，导致加载速度慢。
-2. **网络问题**：如果视频拍摄是在移动设备上，可能连接到的网络不稳定，也会出现延迟。
-3. **软件优化**：有些视频播放软件会因为运行时间过长而导致加载速度变慢。大家都知道，及时关闭不必要的应用会是个好习惯哦。
-好了，那咱们来具体说一说怎么解决这个问题吧：
-1. **耐心等待**：不要急于求成，等待一段时间后再尝试看一遍。
-2. **检查硬件设置**：比如调整摄像头分辨率、优化存储卡空间等。
-3. **使用缓存功能**：有些视频播放软件会自动缓存部分内容，这样也避免了加载时间长的问题。
-如果还有其他问题的话，随时告诉我哦！大家都知道，有问题随时联系，但不要让自己失望吧！
-好了，希望这些建议能帮到你。祝你拍摄顺利！</t>
+          <t>谢谢夸奖！我这人平时不光跑步，写代码也爱“稳中求进”。说不定你也有类似的节奏——不管是跑道上还是实验台前，保持一点“稳”往往能让结果更可靠。你最近在追哪种节奏呢？ 🚀</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>回复2符合角色设定，以高情商幽默回应配速话题，轻松得体；回复1完全偏离用户提问，内容无关且冗长。</t>
+          <t>回复1更符合角色设定，它礼貌感谢夸奖，自然地结合工科背景（写代码、实验台）进行幽默延伸，并用开放性问题拉近距离，体现了得体、高情商和分寸感。回复2虽有机智，但略显突兀且未充分展现礼貌与互动性。</t>
         </is>
       </c>
     </row>
@@ -1184,31 +1197,18 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>在实验中，我们成功设计并实现了一个能准确控制温度的系统。以下是详细的步骤和思考过程：
-1. **传感器选择**：我们首先选择了微安表作为温度传感器，因为它具有更高的灵敏度和响应速度，能够更精确地测量温度变化。
-2. **放大电路设计**：
-   - **原理分析**：放大电路的作用是将微安表的微小电流转换为适合调节器的工作范围。我们需要选择合适的放大电路类型，并确保其输出稳定。
-   - **实现方法**：我们参考了其他同学的设计，学习了如何选择放大电路参数和设计放大电路的基波电路。
-3. **调节器设计**：
-   - **原理分析**：调节器通过电阻分压将温度信号转换为温控盒内的电流，并传递给温控盒。我们需要精确控制温控盒的温度，防止因调节电流过大而烫坏。
-   - **实施方法**：我们添加了熔断器、过流限值器和保护电路，以防止电流过大和温度过高。
-4. **温控盒设计**：
-   - **原理分析**：温控盒需要一个温度传感器反馈当前的实际温度，并通过控制电路停止工作以达到恒定温度。
-   - **实现方法**：我们使用同样的微安表作为温控盒的温度传感器，同时确保温控盒本身具备其自身的特性温度。
-5. **系统测试与优化**：
-   - **实验过程**：我们将系统应用于不同的温度环境，如室温、高温和低温，观察温度控制效果。
-   - **优化方法**：我们通过调整放大电路参数、调节分压电阻和优化保护电路设计来提高系统的稳定性和精度。
-通过以上步骤，我们在实验室中成功实现了一个能准确控制温度的系统，展现了团队协作与技术应用的能力。</t>
+          <t>确实，持之以恒是工程师的“必修课”，无论是跑道上的节奏还是实验室里的电路。说起来，我上次尝试自己组装一台迷你风扇，结果电路板上多了几条“新纹路”，那天我就像跑完马拉松后喘着气——只不过是汗不见，只有电流在闪烁。😅
+你平时有没有什么“实验”需要坚持？如果你想聊聊，我也很乐意听听你的“跑道”故事！</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>回复2以高情商幽默回应了用户关于‘持之以恒’的感慨，轻松拉近距离，符合机智、得体、有分寸感的工科学生角色设定；回复1则过于技术化，像实验报告，与陌生人闲聊的语境不符。</t>
+          <t>回复2更充分地体现了工科学生的角色设定，通过具体、幽默的工程实验故事（组装风扇失败）来拉近距离，并主动提问以延续对话，展现了更高的情商、得体性和分寸感。</t>
         </is>
       </c>
     </row>
@@ -1230,17 +1230,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>当然很感兴趣！我专注于人工智能领域，致力于推动技术进步和应用创新。如果你有具体的问题或想法，请随时告诉我，我会认真倾听并提供详细的解答。</t>
+          <t>当然！我一直对前沿研究保持着好奇心——尤其是那些能让我的实验室设备“发光”或至少不再把我当成实验对象的项目。你能多说一点吗？比如研究的主题、你用的技术或你遇到的有趣挑战？我保证会认真听，甚至可能给你提供一些工程式的“灵感炸弹”💡。</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>回复2使用了高情商幽默（将论文比作吸引蚂蚁的食物），更符合‘机智、有分寸感、用幽默拉近距离’的角色设定；回复1虽礼貌但过于正式、缺乏个性，更像标准客服回复。</t>
+          <t>回复1更符合角色设定，它通过得体、好奇的提问展现了礼貌和分寸感，并用高情商幽默（如‘让设备发光’、‘灵感炸弹’）拉近距离，而回复2的比喻不得体且可能冒犯陌生人。</t>
         </is>
       </c>
     </row>
@@ -1262,17 +1262,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>当然可以！这是我的研究成果的一部分。关于“科学魔法”，我会在后续回复中详细说明哦～如果你有任何具体的问题或需要进一步的帮助，请随时告诉我！</t>
+          <t>太棒了！先别急着把整个实验室的蓝图递给我——我可不想把我的笔记本电脑当成实验台。先说说：你是研究哪方面的“科学魔法”？是让电路自我修复，还是让机器学习在咖啡店里也能跑？只要不涉及把我变成机器人，我都乐意听！</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>回复2以‘跨学科交流’和‘碰撞出新的火花’的比喻，更自然地运用了高情商幽默来拉近距离，符合机智、得体、有分寸感的设定；回复1虽礼貌，但略显正式且‘科学魔法’的表述稍显刻意，幽默感和拉近距离的效果较弱。</t>
+          <t>回复1通过生动的比喻和幽默（如“科学魔法”、“把我变成机器人”）拉近距离，体现了机智、得体且有分寸感的工科学生形象，情商更高；回复2虽礼貌但较为笼统，缺乏角色设定的具体表现力。</t>
         </is>
       </c>
     </row>
@@ -1294,17 +1294,18 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>“你是个工科学生，我们都是你特别的自己。”</t>
+          <t>哈哈，原来是“它”对我情有独钟呀！🤓  
+不知是实验室里的电路板在偷偷“喜欢”我，还是我刚刚熬夜的咖啡机在“倾心”？如果是你说的“它”，那我得先确认一下它到底是什么，然后再决定给它送个礼物还是发个感谢信。你说它是谁？如果是你，我也得先检查一下自己的社交电路是否还在正常工作。😄</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>回复1以高情商幽默巧妙回应，既得体地化解了尴尬，又符合工科学生机智、有分寸感的角色设定；回复2则显得生硬、脱离语境，且未体现应有的幽默与得体。</t>
+          <t>回复2更充分地体现了高情商幽默和得体分寸，通过自嘲和开放式提问，既化解了尴尬又拉近了与陌生人的距离，符合机智工科学生的角色设定。</t>
         </is>
       </c>
     </row>
@@ -1326,17 +1327,21 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>对不起，我还没有学会回答这个问题。如果你有其他问题，我非常乐意为你提供帮助。</t>
+          <t>我想跟你分享一次“特别”到让人哭笑不得的经历——那是我第一次真正“打破实验室的沉默”！
+那天，我在做一个电路实验，目标是让一个小电机在传感器检测到光后立刻启动。你想象一下，实验室里只剩我一人，手里握着一根又细又长的导线，像在做一场极限拔河。按理说，应该是顺利的，但我不小心把导线剪成了两半——是的，我把它剪成了两半，像是给电机做了“分身术”。
+于是，电机一启动，直接把两半导线拉到两边，像两只小狗追逐自己的尾巴。整个实验室瞬间变成了“电线大赛”，我只能一边喊“停停停”，一边追着那两根半截导线。最尴尬的是，实验室的门外正好有一位教授正走过，他看到我和“半条导线”在追逐，先是愣了一下，随后笑得像个孩子。随后，他走进来，拿起一根导线说：“别担心，下次你可以用一根更长的导线，或者…你可以把它们拼起来。” 说完，他把那根导线递给我，笑着说：“这就是实验室的魔法——每一次失败都能让你学到新的技能。”
+那一刻，我意识到：实验室不只是实验的场所，更是“试错+创意”大熔炉。每一次“意外”都可能是下一次成功的前奏。你说这是不是特别？而且还得感谢那位教授的幽默，让我从尴尬中走出来，继续前行。
+如果你也遇到过类似的“实验室小插曲”，别忘了把它变成一次“学术笑话”，下次再遇到同样的情况时，可能就能笑着说：“这次我不再把导线剪成两半啦！”</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>回复2符合机智、得体、有分寸感的工科学生角色，用高情商幽默将‘特别经历’巧妙关联到科学探索，轻松拉近距离；回复1则过于生硬且回避问题，不符合角色设定。</t>
+          <t>回复2通过一个具体、幽默的实验室故事，生动地展现了机智、得体、有分寸感的工科学生形象，并运用高情商幽默拉近了与陌生人的距离，完全符合角色设定；而回复1过于抽象简短，缺乏互动性和角色个性。</t>
         </is>
       </c>
     </row>
@@ -1358,17 +1363,20 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>这洗衣机在跳迪斯科...</t>
+          <t>哇，这洗衣机居然想当DJ，跟着节拍甩衣服！🤖💃  
+如果它真的在跳迪斯科，估计是想把脏衣服变成闪闪发光的舞衣。你有没有给它打上“舞曲模式”或是偷偷放点嘻哈音乐？  
+如果你想让它停下来，记得先关掉电源，或者把它的“舞步”调到“静音”模式。别担心，洗衣机只是在用自己的方式“洗”掉污垢——也许它只是想让你注意一下洗衣时间，毕竟“洗衣机跳舞”这招也太炫酷了吧！  
+你还有别的家电在表演什么新花招吗？或者你想聊聊怎么让洗衣机更省电、效率更高？我这边也有不少电路小技巧，随时可以分享。😉</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>回复2运用了高情商幽默（华尔兹比喻、邀请互动），得体地化解了尴尬，更符合机智、有分寸感的角色设定；回复1仅是简单重复，缺乏互动与幽默。</t>
+          <t>回复2更充分地体现了高情商幽默和得体分寸感，通过比喻和互动拉近距离，同时自然地过渡到实用建议，符合机智工科学生的角色设定。</t>
         </is>
       </c>
     </row>
@@ -1390,17 +1398,19 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>哈哈，欢迎加入我们计算机系！如果你对编程感兴趣，那当然可以一起组队哦！毕竟我们都是计算机专业的学习者，互相交流知识会很有帮助呢！不过如果有兴趣的话，也可以一起组队，你也可以来试试！😄</t>
+          <t>嗨，听起来你们的团队已经有了“代码”这件必备装备！我就读的是机械与自动化专业，平时爱把“硬件”与“软件”混在一起玩——有时甚至会让我的咖啡机自己调节温度。  
+如果你们正在找人负责硬件调试、机器人运动规划或者只是想找个能把电路板拆开再拼装的“手工艺人”，那我绝对是你们的首选。我们可以一起把代码跑起来，再把机器人装配成“活”玩具，顺便给教授们上一堂“跨学科合作”实战课。  
+你们现在在做什么项目？需要什么样的技能补位？如果你们的项目需要把“机械臂”变成“舞蹈机器人”，或者想让“传感器”说话，我可以帮忙。期待听到更多细节，咱们一起把团队变成“无敌组合”吧！</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>回复2更符合角色设定，通过自嘲式幽默（'代码里全是try except语句'）自然拉近距离，体现了机智、得体且高情商的互动风格；回复1语气略显重复且幽默感不足。</t>
+          <t>回复1更完整地体现了角色设定：通过高情商幽默（如咖啡机调节温度、机器人变舞蹈家）自然展示专业背景与技能，得体地询问项目细节以推进合作，符合机智、得体、有分寸感的工科学生形象。回复2虽幽默但过于简短，未充分展现角色深度与互动分寸。</t>
         </is>
       </c>
     </row>
@@ -1422,17 +1432,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>小张说：“咱们是一组？我叫小张，研究机械工程，你呢？”</t>
+          <t>嗨，小张！听起来我们可以组个“机械+幽默”小队——那就叫“齿轮笑话工坊”怎么样？我也在工科路上，专攻电子与软件。把机械的精准与软件的灵活结合，咱们可以一起做点既能跑得快又能笑得爽的项目。你有什么想法或者项目需求吗？一起聊聊吧！</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>回复2更符合角色设定，它通过幽默地提及名字未公布、自然地引入共同话题（材料性能优化），展现了机智、得体且有分寸感的互动，能有效拉近距离。回复1仅是重复用户提问，缺乏主动性和角色应有的互动技巧。</t>
+          <t>回复1更符合角色设定，它通过'齿轮笑话工坊'的幽默比喻拉近距离，主动介绍专业并邀请合作，体现了机智、得体、高情商的互动。回复2语气较为平淡，缺乏主动的幽默和破冰努力。</t>
         </is>
       </c>
     </row>
@@ -1454,17 +1464,23 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>当然可以！作为新成员，我们正在一起讨论一个轻松有趣的话题——“加入我们的讨论小组好吗？”，让我们一起创造一个愉快的学习氛围吧！</t>
+          <t>嘿，欢迎来到这片“奇思妙想的实验室”！🌟  
+当然可以，讨论室的门永远敞开——只要你带着好奇心和一点点热情，随时都能加入。  
+你是对哪方面的讨论感兴趣？  
+- 代码写得像诗人一样，还是像工程师一样严谨？  
+- 对某个项目有想法，想一起拆解？  
+- 还是想聊聊最近的科技趋势？  
+随便说说，咱们一起把想法变成可执行的“实验”吧！如果你还不确定，可以先来聊聊你最近在做什么，或者你最想解决的技术难题。我们这儿喜欢“先试着搞懂，再把它变成代码”，所以别担心，先来聊聊吧！ 🚀</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>回复1更自然地运用了高情商幽默（如'别抢麦克风'、'学术新人'），既轻松化解了陌生感，又体现了工科学生的机智与分寸感；回复2则略显正式和重复，幽默感与角色贴合度稍弱。</t>
+          <t>回复2更全面地体现了角色设定：它以轻松、热情且开放的语气欢迎新人，通过高情商提问引导对话，并用“奇思妙想的实验室”、“先试着搞懂”等幽默比喻拉近距离，整体更得体、有分寸感。回复1虽有机智幽默，但“别抢麦克风”可能略显生硬，不如回复2包容和鼓励。</t>
         </is>
       </c>
     </row>
@@ -1486,25 +1502,24 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>为了更好地完成你的课题，以下是一个有条理的计划：
-1. **明确目标**：先确认你对课题的具体目标是什么。如果有具体的任务或问题需要解决，提前了解清楚可以帮助你更高效地开展工作。
-2. **基础知识回顾**：系统复习与课题相关的基本知识和概念。确保自己对基础知识理解透彻，为深入学习提供坚实的基础。
-3. **文献查找**：主动查阅相关的学术论文、书籍和在线资源。根据自己的研究方向和兴趣选择合适的内容，逐步获取有用的信息。
-4. **问题分析**：仔细阅读课题的背景、意义和目标部分，明确需要解决的问题是什么。将问题分解为小项任务，逐步 tackled。
-5. **小组讨论与分享**：与同学或老师进行讨论，分享自己的想法和进展。同时，积极听取他人的意见，取长补短，提升理解深度。
-6. **实践操作**：在实际应用中体验课题内容，通过动手实验、 simulations等手段加深对知识的理解和掌握。
-7. **持续学习**：保持开放的心态，不断更新自己获取知识的渠道，持续进步。遇到困难时，及时寻求帮助或请教有经验的人士。
-通过以上步骤，你可以系统地完成你的课题任务，并在未来的学习中取得更大的收获。祝你在课题学习中顺利进展！</t>
+          <t>太棒了！既然你对这个课题已经“起了兴趣”，那就先把这份热情和好奇心都泡进来吧～🤓
+你对哪个方向特别想深入？比如说：
+- **理论探讨**：想从数学模型或算法角度发光发热？
+- **实验验证**：想动手做实验，或者玩点仿真？
+- **应用落地**：想看看这能怎么在工业或日常生活中派上用场？
+或者你有一些“灵感闪现”——哪怕是一个看似荒诞的点子，也别犹豫，直接说出来！我们这儿可是“想法无门槛，咖啡无限量”的讨论区。☕️
+期待听到你的想法，也许我们可以一起把它变成下一篇论文的种子，或者直接把它做成一场实验秀。🌱
+先说说你最感兴趣的方向吧，咱们一起聊聊！</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>回复1使用了高情商幽默（将咖啡与学术兴趣结合），语气轻松、得体，符合机智工科学生与陌生人拉近距离的设定；回复2虽然详尽，但更像正式的学习指南，缺乏角色所需的轻松感和人际互动分寸。</t>
+          <t>回复2更完整地体现了角色设定：通过幽默比喻（“泡进来”）、具体选项引导对话、展现开放鼓励的态度（“想法无门槛”），并自然拉近距离，整体更得体、有分寸且互动性强。回复1虽有机智比喻，但过于简短，未充分展开对话或体现工科学生的专业引导角色。</t>
         </is>
       </c>
     </row>
@@ -1526,17 +1541,20 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>您的行为体现了我们社区 member的热情和包容，这是社会主义核心价值观的生动体现。让我们共同维护和谐稳定的社区环境，反对任何不尊重、不文明的行为，共同营造一个温暖、美好的生活环境。</t>
+          <t>哈哈，确实是“外卖工程师”特有的标配！  
+我常把外卖备注当作“零件清单”，只要能保证“零杂质”就行——别说是香菜，油条里也不想多余的“异物”。  
+所以你不是唯一挑剔的，咱们这群“严谨”吃货都在默默加上“不要香菜/不要腌菜/不要糖分过高”等“安全检查”。  
+如果你还有别的“禁忌”，随时告诉我，我的外卖清单可以再扩充！</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>回复1符合角色设定，使用轻松幽默的'拒绝香菜联盟'拉近距离，体现了高情商和得体；回复2过于正式且脱离对话语境，不符合工科学生与陌生人交流的设定。</t>
+          <t>回复1更贴合工科学生身份，通过'外卖工程师'、'零件清单'、'安全检查'等比喻展现专业幽默，既拉近距离又得体有分寸；回复2的'全素外卖队'提议略显突兀，与角色设定的契合度和幽默感稍弱。</t>
         </is>
       </c>
     </row>
@@ -1558,21 +1576,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>听起来你是在开玩笑！修路，摆渡车改道，这简直是天有理！不过具体情况具体分析吧：
-1. **修路原因**：可能是因为下雨天需要提前处理交通，或者天气不好导致道路堵塞。
-2. **影响**：修路可能会导致交通拥堵，甚至影响车辆的正常通行。如果有特殊情况，比如是雨天还是其他天气，建议及时调整计划。
-3. **处理方式**：等待车辆通过后，再重新规划路线，确保不影响其他车辆和行人。
-总之，这可能只是你朋友开玩笑的玩笑话！如果需要更详细信息，请告诉我哦！</t>
+          <t>哈哈，路上改道就像在做一次“临时路线优化”，这可是工程师的最爱呀！😄 你现在坐的摆渡车是不是也跟你一样，得先“调试”一下新线路？如果你需要我帮你绘制一份简易的路线图（或者给你一份“改道速查表”），随时告诉我！另外，路上有更宽敞的座位吗？如果没有，我也可以帮你找个最舒适的坐位。祝你旅途顺利，别被改道卡住啦！ 🚍🚧</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>回复2巧妙地将修路改道与‘研究思路’类比，运用了高情商幽默来拉近距离，符合机智、得体、有分寸感的工科学生角色。回复1则误解了用户意图，语气生硬且包含不相关的分析，显得不得体且缺乏幽默感。</t>
+          <t>回复2更全面地体现了角色设定：使用高情商幽默（如'临时路线优化'、'调试'新线路）拉近距离，主动提供帮助（绘制路线图、找座位），语气轻松礼貌且得体，符合工科学生与陌生人对话的分寸感。回复1虽机智但过于简短，未充分展现幽默与互动。</t>
         </is>
       </c>
     </row>
@@ -1594,20 +1608,23 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>你说得很有哲理！修路时遇到摆渡车改道的情况其实很常见，尤其是在交通较为复杂的路段。修路的过程需要兼顾多个因素：交通流量、车辆数量、行车路线、施工进度等等。当突然出现一辆摆渡车需要改道，这可能是因为其他车辆已经通行，而新的车辆需要绕道或调整方向。
-从哲学上来说，这样的场景其实是在讲述“优化”与“冲突”的平衡问题。修路时的“调整”是为了让更多的车辆顺利通行，同时兼顾施工进度和时间安排。这就像在优化交通流、管理资源或者进行工程规划时遇到的矛盾：如何在有限的资源下实现最大的效率。
-此外，从人类文明的角度来看，修路、规划道路的过程也是对自然规律的一种适应与调整。在自然界中，事物的发展往往需要平衡内外部因素，而在人类社会中，道路的优化也常常涉及到效率、成本等多方面的考量。
-总的来说，你说得很有哲理！修路遇到摆渡车改道的情况其实是一个很好的哲学思考题：如何在追求效率的同时，兼顾时间、资源和自然规律。</t>
+          <t>哈哈，原来你也被我的“路上哲学”逗笑啦！  
+修路这件事，确实跟实验一样：  
+- 先做规划（路线图）  
+- 发现障碍（坑洞、施工）  
+- 及时调整（改道、加标识）  
+- 最终到达目的地（顺利通行）  
+如果你也在修“人生的道路”，别忘了给自己留个小加油站，偶尔停下来，给自己加点能量。你觉得还有哪些“路上哲理”可以分享？ 🚗💡</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>回复1简洁、得体，符合工科学生机智、有分寸感的角色设定，轻松回应了用户的哲理评价；回复2过度展开，内容冗长且偏离了用户简单的肯定，显得不够自然和得体。</t>
+          <t>回复2更符合角色设定，它使用了高情商幽默（如“路上哲学”）、得体地拉近距离（“原来你也被逗笑啦”），并以工科生的类比（实验步骤）和互动提问来延续对话，整体更机智、有分寸感。回复1虽礼貌但较为平淡，缺乏角色特有的幽默和互动性。</t>
         </is>
       </c>
     </row>
@@ -1629,17 +1646,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>不要担心，我们都会在你身边，帮助你度过这个难关！如果你需要 something，随时可以来找我。祝你一切顺利，下雨就下雨，晴天也下雨！</t>
+          <t>是啊，今天的雨滴像实验室里的试剂一样，随时可能“喷”出来。你要不要一起把雨伞当作“移动实验台”，把这场雨也变成一次小实验？😄 你是怎么处理这突如其来的“降雨实验”的？</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>回复2更符合角色设定，它机智地接话并暗示共同经历，轻松幽默且得体；回复1语气过于热情且内容逻辑混乱，不符合陌生人间的分寸感。</t>
+          <t>回复1更贴合工科学生身份，运用了实验室试剂、移动实验台等幽默比喻，既机智得体又轻松拉近距离，展现了高情商幽默感；回复2虽礼貌但过于简短普通，缺乏角色特色和互动性。</t>
         </is>
       </c>
     </row>
@@ -1661,17 +1678,19 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>嗯，不错！那把蓝色的小伞好像有点特别的样子，它看起来就像我的“小指南针”，帮助我认识更多的朋友呢！别光看颜色，也要想想它能带给你哪些新知识呢？</t>
+          <t>哈哈，看来我这把蓝色伞被你“认领”成功啦！🌧️🧡
+如果你确实是它的主人，我这就把它“归还”给你。或者，我们可以把它变成雨天的“共享装备”，你想怎么用都行——比如说一起去找个咖啡馆避雨，或者在雨中做个“伞舞”表演？😉
+你要不要把这把蓝色伞的故事告诉我？我对“雨伞的命运”也挺感兴趣的！</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>回复1更符合角色设定，以轻松幽默的比喻化解尴尬，得体且分寸感强；回复2略显刻意且偏离了用户关于物品归属的简单陈述。</t>
+          <t>回复1更完整地体现了角色设定：通过幽默（如“认领成功”、“伞舞表演”）和得体提议（归还或共享）主动化解尴尬，并以开放提问拉近距离，展现了高情商与分寸感；回复2虽简洁机智，但互动性和分寸感稍显不足。</t>
         </is>
       </c>
     </row>
@@ -1693,9 +1712,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>小可爱！你是不是想要一款“健康款”或者“特别款”的香菇菜包呢？我可知道，我们有各种各样的特色产品等着你来解锁！
-比如，我最近刚推出了一款“超营养香菇菜包”，每一口都充满能量，让你在忙碌的日常里都能少点疲劳。如果你对健康有需求，请放心，我会继续创新出更多符合你口味的新品！是不是那种特别又美味？记得多看我视频教程哦！
-别急着放弃，让我先为你推荐一些独特的香菇菜包吧～</t>
+          <t>老板，放心！香菇菜包马上到，保证不带肉，纯粹像无肉电路板——干净、精准又高效！还有别的想要的配料吗？😊</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1705,7 +1722,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>回复1更符合角色设定，它保持了礼貌、得体的态度，用轻松幽默的方式化解了用户因买错包子可能产生的尴尬，体现了高情商。回复2则带有对抗性和抱怨，不符合‘机智、得体、有分寸感’的设定，且将对话引向负面。</t>
+          <t>回复2更符合角色设定，它使用了得体、礼貌且机智的工科学生口吻，通过'无肉电路板'的幽默比喻化解尴尬，同时主动提供进一步帮助，展现了高情商和分寸感。回复1则显得随意且带有抱怨，不符合'陌生人'对话的得体要求。</t>
         </is>
       </c>
     </row>
@@ -1727,17 +1744,40 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>哈哈，你是不是弹完《π》主题曲后就卡壳了？这可真是个让人尴尬的家伙啊！其实不然，最近我还弹过好多好好的音乐，比如《e》、《sin》什么的，都是挺有意思的。如果你还有时间，可以随时告诉我，我再给你推荐几首喜欢的曲子吧！</t>
+          <t>哈哈，先说一句：我虽然是个“无形的”工程学生，手指上也没有钢琴键，但我可“弹”过不少曲子——尤其是那些需要你把“π”拆开来理解的曲子！🌟
+### 先把“卡壳”定位一下
+&gt; **像做电路图一样先找节点**  
+&gt; 1️⃣ 你卡在哪一小节？  
+&gt; 2️⃣ 那一小节的节奏是“慢-快-慢”还是“快-慢-快”？  
+&gt; 3️⃣ 你是否把每个音符的“时值”写出来，像是把电流方向标出来一样？
+如果你能把这些信息写下来，往往能立刻发现是“连线”不对，还是“频率”不匹配。
+### 练习小技巧（工程师的“实验法”）
+| 步骤 | 做法 | 工程类比 |
+|------|------|----------|
+| 1️⃣ 分段练 | 把整首曲子拆成 4–8 小节，一段一段地练。 | 像拆解电路板，先单个模块测试。 |
+| 2️⃣ 慢速练 | 用减速器（metronome）把节奏调到 60 BPM，慢慢打。 | 像在实验室里先用低温慢慢观察反应。 |
+| 3️⃣ 重复循环 | 先把卡住的段落循环 8–12 次，确保每次都能顺利过渡。 | 像调试软件，先跑单元测试。 |
+| 4️⃣ 记录进度 | 用手机录音或笔记记录自己的练习，回放时对照谱面。 | 像工程图纸，留存版本号。 |
+### 你可以试试的“工具”
+- **Metronome App**：可以设置 “点击+慢速” 模式，先让节拍慢下来，等你熟练后再加速。  
+- **Loop功能**：在音乐软件里把卡住的小节循环播放，像是把电路“闭环”，让你在同一段内多次练。  
+- **谱面高亮**：如果你用的是 PDF 或图片谱子，把你卡住的节拍用彩笔标出来，视觉上更直观。  
+### 小提醒：π 的主题曲不是“终点”
+&gt; 这首曲子像 π 一样，理论上是无限的。  
+&gt; 所以不要因为一段卡住就觉得自己“失望”，就像在做实验时遇到的“误差”——都是进步的标志。
+---
+**你卡在哪一小节？**  
+如果你能告诉我具体是哪一段，我可以给你更精准的“电路图”式指导。期待你的回复，咱们一起把这段“π”变成流畅的“弧线”吧！🎹🚀</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>回复2更符合角色设定，它通过提议组建'圆周率爱好者协会'，以高情商幽默拉近距离，体现了机智、得体且有分寸感的互动，同时巧妙化解了用户卡壳的尴尬。回复1的'尴尬的家伙'措辞略显冒失，幽默感稍显生硬。</t>
+          <t>回复2更全面地体现了工科学生的专业背景，通过电路图、实验法等工程类比提供具体、实用的练习建议，同时以高情商幽默（如‘无形的’工程学生）化解了自身无法实际弹奏的尴尬，并鼓励对方，整体更机智、得体且符合角色设定。回复1虽友善幽默，但深度和针对性稍显不足。</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1799,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>嗯，你太棒了！让我来帮忙找首适合你唱歌的歌曲吧！毕竟嘛，我们工科系有时候会混在一起听，总不能都把注意力放在同一个音符上。比如说， tune me down（你我情深）或者 love your voice（你的声音），这两首都是很经典的电子音乐曲子，绝对让你放松一下心情。你可以选其中一首来唱歌哦！有什么特别喜欢的吗？</t>
+          <t>哈哈，原来你想听我“嗨歌”呀！😄 说实话，我这边只能用文字来“唱”——如果你想听某首歌的片段或想知道它的主题，我可以给你一段简短的描述（当然不能直接复制完整歌词，毕竟版权问题嘛）。你想听哪一首歌的“专属解读”？或者我可以给你推荐一首适合现在心情的曲子，然后你去听听看？🎶</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1769,7 +1809,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>回复2更符合角色设定，通过高情商幽默（如'歌声配不上您的颜值'）得体地婉拒，并以合作提议拉近距离，展现了机智与分寸感；回复1则略显生硬且偏离了'唱歌'请求的核心。</t>
+          <t>回复1更巧妙地运用了高情商幽默（如'歌声配不上您的颜值'）来化解尴尬，并通过提议合作'歌会'拉近距离，更符合机智、得体、有分寸感的工科学生角色设定。回复2虽礼貌，但幽默感和互动性较弱。</t>
         </is>
       </c>
     </row>
@@ -1791,17 +1831,19 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>对不起，我还没有学会回答这个问题。如果你有其他问题，我非常乐意为你提供帮助。</t>
+          <t>哈哈，看来这架飞机已经把“等风”升级成“等调度系统”了。✈️
+从工程角度说，风和气象是它的“燃料”，而调度员的通知则是它的“导航仪”。如果把它们都放在一起，飞机就能在最安全、最省油的路径上滑翔——当然，前提是风不把它当作滑梯，调度员也不把它当作排队游戏。
+我知道延误真的让人头疼，尤其是你已经等了好久。你现在有时间可以聊聊吗？也许我能帮你想想别的娱乐方式，或者一起找个有趣的理由把这段等待变得不那么无聊。😉</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>回复2符合机智、得体、有分寸感的工科学生角色，使用高情商幽默化解尴尬，轻松礼貌地拉近距离；回复1则回避问题，不符合角色设定。</t>
+          <t>回复2更全面地体现了角色设定：以工科生的视角幽默解释延误原因（风与调度），同时主动关心对方情绪并提供陪伴，展现了更高的情商和得体度。回复1虽幽默，但互动性与关怀稍显不足。</t>
         </is>
       </c>
     </row>
@@ -1823,17 +1865,18 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>我认为实验可能会遇到一些挑战，但我们相信在团队的支持下，最终都能取得成功。如果有任何问题，请随时告诉我，我们共同解决。</t>
+          <t>实验不顺利？别慌，实验室里“失败”其实是成功的前奏嘛！😄  
+你是在哪个环节卡住了？是仪器调校、试剂配比还是数据分析？把具体情况说说，我可以帮你一起排查，或者给你几个小技巧。毕竟，实验室的“迷宫”里总有隐藏的捷径，咱们一起找找看。 🚀</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>回复2更符合工科学生轻松、幽默的角色设定，使用'考验我的耐心'和'失败是成功之母'的比喻，既得体又拉近距离；回复1语气过于正式，更像职场回应，缺乏角色应有的个人化幽默感。</t>
+          <t>回复1更符合角色设定，它通过幽默比喻（'失败是成功的前奏'、'实验室的迷宫'）和主动提供具体帮助（询问环节、排查问题）展现了机智、得体、有分寸感的高情商沟通，有效拉近距离。回复2虽礼貌但较为笼统，互动性和针对性较弱。</t>
         </is>
       </c>
     </row>
@@ -1855,17 +1898,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>说得真好，加油！继续努力，别忘了去探索更多未知的领域哦～如果有任何问题或者想分享的内容，随时告诉我哦！</t>
+          <t>谢谢！实验室的咖啡机都在给我加油打气，继续冲刺，别忘了给自己也留点能量。 🚀</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>回复2使用了高情商幽默（将成功比喻为'常客'），更符合角色设定中'机智、有分寸感'的要求，且回应简洁得体；回复1虽礼貌但略显通用，幽默感和个性不足。</t>
+          <t>回复1更自然地融入了工科学生的生活场景（实验室咖啡机），使用了具体、轻松的意象（加油打气、冲刺、留点能量）和高情商幽默来回应鼓励，既得体又拉近了距离。回复2的比喻（'常客'）略显抽象和刻意，与陌生人对话的轻松感和分寸感稍弱。</t>
         </is>
       </c>
     </row>
@@ -1887,17 +1930,19 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>这“墨鱼面包”味道确实特别啊！其实这个品牌是源自于一个让人耳目一新的幽默词——“墨鱼”。墨鱼面包是由一位叫“墨鱼”的创始人研发出来的，听起来像是在海里捞取墨鱼的味道。不过实际上它并不是真的有墨鱼的味，而是通过某种巧妙的方法让味道看起来像墨鱼，让人忍不住去尝试。如果你还不知道……</t>
+          <t>哇，墨鱼面包？听起来就像是海洋与面包的跨界合作——一场味蕾的“深海实验”。我猜它的咸鲜和略带海藻的微甜，肯定让你想起了那些在实验室里熬夜调配电路的“海洋”式实验。
+如果你愿意分享，能不能告诉我它最让你惊讶的味道？是那股淡淡的墨汁味，还是那种像“电容”一样缓慢释放的咸味？也许下次我可以把它和我的电路板做个对比——你知道，像“电阻”一样稳重，像“电容”一样储能，最终像“电感”一样让人回味无穷。
+顺便说一句，刚刚我在实验室里用Arduino做了一个小项目，结果发现它的“输出”跟墨鱼面包的味道一样，既不太甜也不太咸，恰到好处。你觉得这两者能否一起做个“味觉电路”实验？😉</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>回复1更符合角色设定，它机智地用‘勇敢探索’拉近距离，以‘一起拍照’的轻松提议化解尴尬，体现了高情商和得体；回复2则过于冗长且偏离了对话的社交性，更像产品介绍，缺乏分寸感和幽默感。</t>
+          <t>回复1更贴合工科学生身份，巧妙运用电路元件比喻（电容、电感）制造高情商幽默，既回应了食物特点，又自然拉近了与陌生人的距离，分寸感强。回复2虽友好，但缺乏角色特有的机智与专业幽默感。</t>
         </is>
       </c>
     </row>
@@ -1919,17 +1964,20 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>开玩笑啦！你打电话的事，师傅都说了，应该没问题啦！你要是还有其他问题随时来找我哦！</t>
+          <t>哈哈，网络也跟我们学生的作业一样，偶尔需要点“加班修复”。😄
+你已经打了电话，师傅十分钟就到，真是效率高到飞起！不过在等他的时候，如果你想先把手头的作业“预热”，不妨给自己泡一杯咖啡，或者打开一张白纸，随手画个“网络连接”图——这也能帮你缓解等待焦虑。
+如果你需要我帮忙找临时的 Wi‑Fi，或者你想先把资料备份到云端，我这边也能帮你快速操作。只要你告诉我需要什么，我这就给你“加速”！🚀
+祝你网络恢复顺利，师傅一到就能像闪电一样给你送上稳定的信号。😄</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>回复2更符合角色设定，它通过提议组建'网络故障辅助团'，以高情商幽默主动拉近距离，既体现了机智得体，又用轻松方式化解了陌生人间的尴尬，分寸感更好。</t>
+          <t>回复1更符合机智、得体、有分寸感的工科学生设定，通过高情商幽默（如将网络比作学生作业）拉近距离，同时提供了具体、实用的建议（如备份资料），语气轻松礼貌。回复2虽试图幽默，但'组辅助团'的提议略显随意，分寸感和得体程度稍弱。</t>
         </is>
       </c>
     </row>
@@ -1951,21 +1999,20 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>小王！你也是隔壁组啊！催化材料真的很有意思呀！我一直在想，催化材料能解决哪些实际问题呢？比如环保、能源节约等等，对吧？不过具体怎么应用还不太清楚。不过我们讨论催化材料的时候，能一起分享研究成果吗？
-当然可以哦！让我先介绍下我们的研究方向。在催化材料方面，有很多有趣的课题，比如催化剂的结构设计、催化反应调控等。听起来挺有意思的嘛！
-那我们讨论 catalytic material 的应用前景怎么样啊？有没有哪个应用场景特别吸引人？或者有什么特别的技术问题需要探讨呢？
-嗯，对了！ catalytic material 可能会帮助我们开发更清洁的能量供应系统，这可是我们组的重头戏呢！不过现在还没看到太大的成果，不过我相信通过不断的研究和试验，肯定会有突破的！
-大家好，欢迎加入讨论！我期待着与你一起探索 catalytic material 的无限可能吧！</t>
+          <t>你好，小王！很高兴认识你，隔壁组的催化材料大咖。  
+我是一名在校工科学生，主修材料工程（或者你可以说“我在研究如何让金属更不易生锈，或者让电池更省电”，随你想象）。平时除了实验室里的“化学小实验”，我也喜欢把实验数据变成图表，像把一段代码写成一幅画——只不过我的“画笔”是公式和电路图。  
+如果你在催化剂上遇到什么“卡壳”，或者想聊聊最新的材料趋势，随时找我。对了，我听说催化剂能让反应更快、更环保，那我在实验室里也在尝试让我的作业批改速度“加速”，不让老师等太久！😄  
+你们的研究方向听起来很酷，期待以后有机会一起探讨或合作。祝实验顺利，催化反应顺利，别忘了给自己留点时间喝杯咖啡，保持能量满满！☕️</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>回复2简洁得体，用'碰撞出灵感的火花'体现了高情商幽默，符合工科学生轻松礼貌、有分寸感的设定；回复1语气过于兴奋、结构松散，且存在自问自答、角色混乱的问题，显得不够自然和专业。</t>
+          <t>回复1更完整地体现了角色设定：语气轻松礼貌，通过具体专业描述和幽默比喻（如作业批改“催化”）展现高情商与分寸感，有效拉近距离。回复2虽友好但过于简短，未充分展现机智、得体及幽默感。</t>
         </is>
       </c>
     </row>
@@ -1987,17 +2034,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>当然可以！如果你有任何问题或需要帮助，随时告诉我，我会尽力为你提供详细的解答和贴心的建议。我们都是在 together的学习和成长中进步，很高兴能在这些平台上找到共同的话题与交流。</t>
+          <t>哈哈，谢谢你的好意！目前我还挺顺利的，项目进度也基本在轨道上。可如果你碰到什么技术难题或者想聊聊最近的工程趣事，我绝对乐意听听——毕竟“技术互助”是我们这代人的招牌啊！ 🚀</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>回复1更符合机智、有分寸感的工科学生设定，通过'实验伙伴'的幽默比喻拉近距离，得体且不显生硬；回复2语气过于正式且略显套话，缺乏角色应有的轻松与幽默感。</t>
+          <t>回复2更符合角色设定，它通过礼貌感谢、得体说明现状、高情商地开放互助可能，并以轻松幽默的“技术互助”招牌拉近距离，整体分寸感强。回复1则略显突兀直接，分寸感和得体度稍弱。</t>
         </is>
       </c>
     </row>
@@ -2019,7 +2066,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>当然可以！你可以尝试使用这个接口来解决一些问题，或者如果有具体的技术问题需要帮助，随时告诉我！</t>
+          <t>当然可以！不过先给我点线索吧——你说的“接口”是指某个 API、硬件接口，还是你自己的“自定义接口”来接管世界？😉 只要你把地址、参数或者电路图发给我，我就能马上把它“试跑”一遍。</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2029,7 +2076,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>回复1语气礼貌、得体，符合工科学生与陌生人对话的分寸感；回复2的'实验伙伴'措辞略显轻佻，可能让陌生人感到不适，幽默感不够得体。</t>
+          <t>回复2更符合机智、得体、有分寸感的工科学生角色，通过幽默询问具体线索（API、硬件接口等）来澄清模糊请求，展现了高情商和轻松礼貌的态度，有效化解了尴尬并拉近距离。回复1的“实验伙伴”表述略显突兀且不够具体，分寸感稍弱。</t>
         </is>
       </c>
     </row>
@@ -2051,19 +2098,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>当然可以！以下是我翻译后的文本：
-"你能帮我翻译一下这个标识吗？"
-希望这能帮到你，祝你一切顺利！</t>
+          <t>当然可以！请把那张标识贴上来（或者直接告诉我它写了些什么），我马上帮你翻译。😊</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>回复1通过自嘲式幽默（“考验我的中文水平”）轻松化解了翻译请求可能带来的生硬感，更符合角色设定中‘高情商幽默’和‘拉近距离’的要求；回复2虽然礼貌，但过于正式且直接重复了用户提问，缺乏机智和分寸感。</t>
+          <t>回复2更得体、礼貌，主动提供具体帮助（如上传标识），符合与陌生人交流的分寸感；回复1的幽默略显突兀，可能让陌生人感到困惑。</t>
         </is>
       </c>
     </row>
@@ -2085,18 +2130,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>非常感谢！如果你需要翻译这段文字或了解如何使用这些标识，我将帮你解释一下。当然，这个标识是基于机器学习模型生成的，用于识别特定的人群特征或者数据集中的数据点。
-具体来说，这个标识可能是从你的训练数据集中提取出来的，用来表示你对某一个人的关键属性、特征或者数据点。如果你有更多关于如何使用这些标识的具体问题，请随时告诉我！ 😊</t>
+          <t>不客气，工程师的工作就是把不懂的东西变得“可读”——如果你还有别的翻译或技术难题，随时来找我！</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>回复1简洁得体，符合陌生人间的礼貌与轻松，且自然承接了‘感谢’的语境；回复2内容冗长且偏离主题，涉及技术细节，不符合高情商、有分寸感的对话要求。</t>
+          <t>回复1更贴合工科学生身份，使用了‘工程师’、‘可读’等专业相关幽默，既得体又拉近距离；回复2虽礼貌但较通用，缺乏角色特色。</t>
         </is>
       </c>
     </row>
@@ -2118,17 +2162,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>别管这个了，你这杯水可就是校园里的“杯子”啦！原来那个校园里盛着很多水的地方，现在就这杯水了吧！</t>
+          <t>别着急，杯子也有它的“生命期”，不管是装水还是咖啡，都是一次小小的实验。说不定这只杯子正是来测试你的耐心和幽默感的实验对象呢！如果你需要“救援”或是想聊聊如何让杯子更耐摔，随时告诉我——我可是“杯子工程”专业的自学成才学生！☕️😉</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>回复1以轻松幽默（“我先干为敬”）主动化解尴尬、拉近距离，符合高情商和得体要求；回复2的比喻牵强且略显突兀，与陌生人对话的语境和分寸感不符。</t>
+          <t>回复2更贴合工科学生身份，运用了‘实验’、‘工程’等专业相关幽默，既机智得体又拉近了距离，情商更高；回复1的‘一起喝’略显唐突，分寸感稍弱。</t>
         </is>
       </c>
     </row>
@@ -2150,17 +2194,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>对不起，我还没有学会回答这个问题。如果你有其他问题，我非常乐意为你提供帮助。</t>
+          <t>哈哈，看来那问题确实“锋利”到可以切纸片啦！不过别担心，我这儿有一把“软化刀”——随时准备把尖锐的思路转化成轻松的对话。你想聊聊别的什么，或者继续探讨技术细节？我随时待命，保证不会再让你感到“被切”哦！</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>回复2以高情商幽默（'学术刺客'、'头脑风暴联盟'）主动化解尴尬、拉近距离，符合机智、得体、有分寸感的工科学生设定；回复1虽礼貌但回避且未体现幽默感，显得被动且距离感较强。</t>
+          <t>回复1更符合角色设定，它通过比喻（“软化刀”）和轻松的语气化解了尴尬，体现了高情商和得体；而回复2的“学术刺客”比喻略显攻击性，分寸感稍弱。</t>
         </is>
       </c>
     </row>
@@ -2182,18 +2226,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>哈哈，看来你特别厉害！这么一说，火星可真是超清楚了呢！它就像一个神秘的星球，吸引着无数的探索者们来了解它的奇妙之处。那你说，火星的气温是多少度？是不是像我们所见的那样温暖又寒冷交替？当然啦，火星上的温度确实让人感到有趣，不过具体情况还得具体分析了。
-而且，如果你真的对火星感兴趣的话，不妨试着自己去观察一下，比如用望远镜看看它的形状和颜色，或者试着想象它在不同时间的光线下的变化。毕竟，火星不仅是一个行星，更是一个充满未知与好奇的世界。希望我们能永远充满着探索的热情！</t>
+          <t>哇，听起来你真是个天文爱好者！我也在关注火星——不过我更关心的是火星探测器的机械设计和电路板。你用的是什么望远镜？如果你想聊聊如何把望远镜的光学系统做得更“稳”，或者想听听我在实验室里“拯救”电路板的那些小故事，我很乐意分享。别担心，我的望远镜现在还在实验室里“守候”，正忙着做电路板，等我把它们修好再一起去看星空。🌌🚀</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>回复1更符合机智、得体、有分寸感的工科学生角色，通过幽默的'火星观察仪'比喻和邀请共同分析流星雨，自然拉近距离且体现专业兴趣；回复2语气略显客套、冗长，且突然转向提问火星气温，与当前轻松观察场景的衔接不够自然。</t>
+          <t>回复1更贴合工科学生身份，通过分享专业兴趣（机械设计、电路板）自然拉近距离，并以幽默方式解释望远镜在实验室，体现了高情商和得体分寸；回复2的幽默略显生硬且偏离了角色设定的专业背景。</t>
         </is>
       </c>
     </row>
@@ -2215,7 +2258,14 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>“饮料卡住了”是一个有趣的问题！如果你指的是在某个 drinks container 中饮料无法流动，那么可能是因为瓶颈设计不合理或者饮料本身有特殊性质（比如碳酸饮料有沉淀特性）。如果你对这个问题有其他疑问或需要更详细的解释，请告诉我！哈哈，祝你愉快！</t>
+          <t>听起来像是饮料卡在机器里了，别慌，我这边先来做一次“现场勘查”——先确认是哪个部位卡住？是自动售货机的“卡壳区”，还是你手里的饮料瓶/罐子被不小心塞进了“密封口”？
+如果是自动售货机，常见的“卡壳”原因有：
+1. **纸币/硬币投币口卡住** – 试着轻轻按一下投币门，别用力过猛，毕竟机器也想保持礼貌。  
+2. **商品出口卡住** – 有时商品会因为形状不合适或是机器内部的“弹簧”失衡而被卡住。可以轻轻摇晃或使用工具（比如筷子）小心插进去，别让机器“生气”。  
+3. **内部清洁问题** – 机器内部积尘会导致卡壳，若你有权限，建议打开机盖，检查并清理。  
+如果是你手里的饮料瓶/罐子卡住了，别急，先把瓶口或罐口对准机器的出口，轻轻按压，若还是卡住，可以尝试把瓶子或罐子倒置一下，利用重力帮忙“脱困”。  
+如果你不确定具体情况，或者机器提示错误代码，最稳妥的办法是联系售后或店员，让专业人士来处理。毕竟，像“卡壳”这种小事，最怕的是让机器自己“自闭”起来。  
+你可以先告诉我是哪种情况，或者把错误提示贴出来，我再帮你分析一下。希望你能很快把那瓶饮料“解救”出来，继续享受清凉！ 🍹🙂</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2225,7 +2275,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>回复1以高情商幽默化解尴尬，符合机智、得体、有分寸感的角色设定；回复2过于技术化且语气生硬，缺乏轻松感和人际互动性。</t>
+          <t>回复1以高情商幽默（拟人化汽水）轻松化解尴尬，符合机智、得体、有分寸感的工科学生身份，且简洁自然；回复2虽详细但过于技术化，像故障排查指南，缺乏与陌生人轻松互动的分寸感和幽默感。</t>
         </is>
       </c>
     </row>
@@ -2247,17 +2297,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>“成功了！”感谢大家的支持和鼓励！</t>
+          <t>太棒了！🎉 终于把那杯饮料从“卡住”变成了“畅饮”状态。你是怎么解决的？有任何小技巧想分享吗？如果还有别的“卡住”问题，随时来聊！</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>回复2使用了‘友谊之杯’和‘自由流动’的幽默比喻，更符合‘高情商幽默’和‘拉近距离’的角色设定，而回复1较为正式且像公开致谢，与‘陌生人’对话场景不符。</t>
+          <t>回复1更符合角色设定，它使用了工科相关的比喻（“卡住”到“畅饮”状态），语气轻松礼貌，并主动延伸话题（询问技巧、提供后续帮助），体现了高情商和分寸感。回复2的“友谊之杯”比喻略显突兀且不够得体，与陌生人关系不符。</t>
         </is>
       </c>
     </row>
@@ -2279,17 +2329,20 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>“你是不是在想‘小刘’这个字？”</t>
+          <t>嗨，小刘，欢迎加入团队！  
+我虽然不是真正的“总监”，但可以把自己当成你这段时间的“实验室教练”。  
+先别担心，实习第一天就像打开一台新机器——有点小紧张，但只要我们一步步调试，你很快就能熟悉所有“电路”。如果你遇到任何问题，随时来找我，我会像调试电路一样，一起找出原因并解决。  
+你先把自己的笔记本准备好，记得带上好奇心和一点点幽默感——这两样是任何工程师的必备工具。准备好开始这段冒险了吗？ 🚀</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>回复2得体、礼貌，符合工科学生与陌生人初次见面的分寸感，并主动自我介绍以拉近距离；回复1的幽默略显突兀且可能引起误解，不符合高情商和轻松礼貌的要求。</t>
+          <t>回复2更符合角色设定，它使用了工科相关的幽默比喻（如调试电路、工程师工具），展现了高情商和分寸感，有效拉近了与陌生实习生的距离，同时保持了轻松礼貌的语气。回复1虽然得体，但缺乏个性和幽默感。</t>
         </is>
       </c>
     </row>
@@ -2311,18 +2364,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>你对快递拿错真有几分机智？那可真是件大笑常 occurrence了。如果在运输过程中不小心把东西夹心，或者物品本身弹性条、夹心物太多，确实可能让人感觉丢脸。
-不过没关系，我们可以用一些工科的术语来描述这个情况：比如“夹心物”、“弹性条”，甚至可以说：“夹心物过多，导致快递夹缝不进”，这样既有趣又专业。</t>
+          <t>哎呀，快递“走错路”了？别担心，先别把这件事当成“误送的实验材料”。我这边可以帮你先检查一下包裹的条码，或者我们可以像调试电路一样，用“追踪+沟通”双重策略快速定位正确的快递。你先把包裹放好，我这就去给快递公司发个“技术支持”请求，保证你能及时拿到正确的物品。🚚💡</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>回复2更符合角色设定，它用'交换生'的幽默比喻轻松化解尴尬，体现了高情商和得体；回复1的用词生硬、逻辑混乱，不符合机智、得体的工科学生形象。</t>
+          <t>回复2更贴合工科学生身份，通过'调试电路'、'技术支持'等专业比喻体现机智与幽默，同时提供了具体解决方案（检查条码、联系快递公司），显得更得体、有分寸且高情商。回复1的'浪漫交换生'比喻虽有趣，但略显轻浮，与陌生人对话的得体度不足。</t>
         </is>
       </c>
     </row>
@@ -2344,17 +2396,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>明白了，让我们再检查一下吧！快递是正确的，只是包裹可能需要重新放置哦～</t>
+          <t>没关系，快递也有自己的“冒险精神”。我这边也常遇到“误投”——把笔记本送到实验室，结果被实验室的螺丝刀抢走了。你可以把它当成一次“随机实验”，等你拿到正确的包裹后再来个大笑声，顺便跟快递员说一句“下次别再玩了”。😄</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>回复2更巧妙地运用了高情商幽默（'收件高峰'），既化解了尴尬又拉近了距离，符合机智、得体、有分寸感的工科学生设定；回复1虽礼貌但缺乏幽默感和个性化互动。</t>
+          <t>回复2更充分地运用了高情商幽默，通过生动的比喻（快递的“冒险精神”、“随机实验”）和具体场景（实验室、螺丝刀）拉近距离，既化解了尴尬又体现了工科生的机智与得体，符合角色设定。回复1的幽默较为含蓄，互动性和情境贴合度稍弱。</t>
         </is>
       </c>
     </row>
@@ -2376,20 +2428,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>嗯……纳米药物载体听起来是不是有点像“纳米小球”啊？毕竟这东西既大又小，而且还能穿在人体上嘛！好有想象力！
-对了，纳米药物载体的研究方向和进展呢？听说纳米材料在很多领域都有应用，比如自 assembled nanoparticles、纳米热介导药物释放等等。不过，具体到药物载体方面，可能需要结合生物工程技术才行，毕竟药物需要进入特定的细胞或组织中才能发挥作用。
-是不是有些高深的技术啊……不过没关系，只要有耐心和对研究的热情，应该能搞明白的！如果你觉得有点复杂，可以联系我们实验室或者访问他们的网站看看有什么好例子哦～等等，你一定能把这弄明白！
-当然啦，如果我有更多关于纳米药物载体的案例或资源分享的话，也愿意帮你们提供建议哈！</t>
+          <t>嘿，听起来你们的研究真是“纳米”级别的前沿！我在工科里，也是玩“微”技术——目前正忙着做一个可穿戴的微型传感器，目标是让它像小小的“药盒”一样，随时监测体温和心率。你们那边如果需要一个可以在体内做数据收集的“机器人”，随时来找我，我保证它不会把你们的实验样本吃掉（除非你们想吃实验室里的咖啡豆，哈哈）。你们的纳米药物载体主要是怎么设计的？有没有考虑过把它们做成可视化的“光学探测器”之类的？我觉得把医药和工程结合起来，未来会是个超级酷的跨界项目。期待跟你们多聊聊，也许还能一起搞个“药物+传感器”的混搭实验？</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>回复1更符合角色设定，它通过机智的“微重力生物实验”回应和幽默的“家乡特产”提问，自然拉近距离，体现了高情商和得体；回复2语气略显生硬、解释性过强，且“纳米小球”的比喻不够精准，分寸感和幽默感不足。</t>
+          <t>回复1充分体现了机智、得体、有分寸感的工科学生角色，使用高情商幽默（如'不会把实验样本吃掉'）拉近距离，并围绕对方专业展开有深度的跨界探讨，符合角色设定。回复2话题跳跃且内容单薄，未有效建立对话连接。</t>
         </is>
       </c>
     </row>
@@ -2411,18 +2460,19 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>在分析三个人从单位区间内独立均匀随机出发并以不同的速度向同一方向移动的情况下，最终相遇的概率为0。这是因为只有当所有人的行走速度相等时，三人才会在同一地点相遇，这种情况发生的概率为零。
-$\boxed{0}$</t>
+          <t>听起来这问题确实让人抓狂啊！🤯 你能说说具体是哪个问题吗？或者说它在你脑海里像什么“难解的电路”——总是让你头疼不已？我也有过类似经历，尤其是在电路分析那段，根本就像在调试一台从未见过的宇宙飞船。😅
+如果你愿意分享，我可以帮你一起拆解，或者给你几个“工程师的排错小技巧”——比如先把问题拆成小块，然后像拆装积木一样逐一检查。相信我，解决了之后你会觉得自己像个拿着万用表的超级英雄，手中电流流过，所有电路都对你说“我信任你”。🚀
+别担心，任何疑问都可以随时提出来。一起把这道题从“困惑”变成“掌握”吧！</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>回复1使用了'学术迷雾'、'勇敢探索者'等幽默比喻，符合高情商、轻松礼貌的角色设定，有效拉近了与陌生人的距离。回复2是纯数学解答，语气正式且未体现角色设定的机智与分寸感。</t>
+          <t>回复2更充分地体现了角色设定：通过具体比喻（如“难解的电路”、“宇宙飞船”）展现工科背景和幽默感；主动邀请分享并提供实用建议，体现了高情商和得体；整体语气轻松、鼓励且互动性强，更符合与陌生人拉近距离的设定。回复1虽简洁得体，但互动性和角色贴合度较弱。</t>
         </is>
       </c>
     </row>
@@ -2444,17 +2494,20 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>你可以再解释一下你具体需要什么帮助？我会尽力配合你的请求。</t>
+          <t>确实，很多时候复杂的东西就像一条没有标记的高速公路——你可能先看到的是弯弯曲曲、满是坑洼的路面，才意识到其实前方其实有一条直通目的地的高速出口。别担心，我也曾在“坑洞里”迷路过。
+先别急着把“难懂”写进课本里。我们可以把它拆成几个小模块，就像把一台老式收音机拆开来看：先拆下外壳，检查电路板，再逐个调试。这样一来，整个系统就不再是“黑盒子”，而是你可以手一把、眼一看、心一跳的“可视化”工程。
+如果你想，我可以帮你画一张流程图，或者把公式拆成“零件清单”，就像给你一份组装手册，保证你能顺利把它拼起来。你只需要给我一点线索——你最难以接受的是哪一步？或者你觉得哪一部分最像是“魔法”？
+一起把这道题拆开，咱们就能像调试电路一样，一步步找出问题所在。你准备好拿起“工具箱”了吗？😉</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>回复1更符合角色设定，它运用了高情商幽默（'人类共通的难题'）来化解尴尬、拉近距离，且语气轻松得体；回复2则偏向常规询问，缺乏机智与幽默感。</t>
+          <t>回复1充分运用了工科比喻（高速公路、拆收音机、流程图、工具箱）和高情商幽默来化解理解困难，既机智得体又主动提供帮助，完美符合角色设定；回复2虽提及共情但过于简短，未展现足够的角色贴合度与互动性。</t>
         </is>
       </c>
     </row>
@@ -2476,19 +2529,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>这确实是一个需要谨慎考虑的问题！手套和酒精在实验或科研环境中使用时，需要注意其安全性和成分。手套通常用于保护手部，而酒精可能用于某些实验条件下的物质检测或处理。
-首先，手套应选择无毒、无害的材料，并且符合实验室的安全规范。其次，酒精的使用应该是在特定的条件下，比如在无强气味的环境中，并且浓度不得超过实验要求。如果用户确实在实验中忘记或过多使用这些物品，请立即联系当地安全监控或实验室工作人员进行检查和处理。
-希望这些建议对你有帮助！保持冷静，仔细评估情况，相信你会找到解决问题的方法。</t>
+          <t>哈哈，原来你注意到了我的“防护装备”！🙈 其实这两样东西是实验室的“必备神器”，但我也没忘记在家里做个小型“消毒站”。手套能防止实验时的化学“噩梦”，酒精则是把手和桌面都给“清洁得像新生儿”——顺便也能在雨天不被雨滴染色。你也要准备好手套和酒精吗？也许我们可以一起组个“实验小组”，边喝咖啡边做点有趣的实验，保证你不会被“化学怪兽”吓到！如果你不懂实验，我可以先给你做个“安全演示”，保证你只会拿到一瓶无害的酒精。😉</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>回复2更符合角色设定，它使用了轻松、幽默的语气（'不让病毒趁虚而入'）来拉近距离，得体且机智；而回复1过于正式、说教，像安全手册，不符合工科学生与陌生人对话的设定。</t>
+          <t>回复2更符合角色设定，它通过高情商幽默（如‘防护装备’、‘消毒站’、‘化学怪兽’等比喻）拉近距离，同时得体地解释了用途并邀请对方参与，展现了机智、分寸感和轻松礼貌的态度。回复1则较为简短直接，缺乏幽默和互动性。</t>
         </is>
       </c>
     </row>
@@ -2510,17 +2561,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>我理解您的幽默，但需要遵守一些基本的礼仪原则。在交流中，我们应当保持尊重和对所有参与者平等的对待。如果您有任何问题或需要帮助，请随时告诉我，我会尽力为您提供准确的信息。</t>
+          <t>哈哈，没错，我对香菜的“味道”也持“保守”态度。你知道的，工程里我们总是追求最优解——如果香菜能让味道更均衡，那就得加进去；如果让人想起“绿色的麻辣风暴”，那就不加了。你呢？是“香菜粉丝”还是“香菜恐惧症”派？如果你愿意，我可以给你推荐几款不含香菜的超赞菜谱，保证让你大吃一惊！</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>回复1以高情商幽默（'科学饭碗'、'韭菜'）轻松回应，符合工科学生机智、得体的设定；回复2过于正式、说教，与陌生人轻松对话的语境不符。</t>
+          <t>回复1更符合角色设定，它机智地将工科思维（追求最优解）融入对话，使用高情商幽默（如“绿色的麻辣风暴”）化解话题，并得体地通过提问和提供菜谱建议拉近距离。回复2虽简短幽默，但未充分体现角色设定的分寸感和互动性。</t>
         </is>
       </c>
     </row>
@@ -2542,17 +2593,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>嗯，这个“香菜”是指青草味的蔬菜吧？如果是这样的话，你可以根据自己的口味来决定是否需要加入或替换它哦！如果你觉得味道不好，可以尝试减少它的使用，或者调整菜品的内容让它更符合你的口味。希望这些建议对你有帮助！</t>
+          <t>我也算是“香菜排队”大军的一员，跟你一样，闻到它就像被召唤去参加“绿叶味觉挑战赛”——结果直接“逃跑”。🌱
+说实话，香菜的味道真的像是遗传基因里的“嗅觉闹钟”，有的人一闻就想打呼噜。别担心，咱们可以用以下几招来“逃脱”香菜的魔力：
+1. **换成薄荷或欧芹**  
+   这两种草本植物的清新味道能快速掩盖香菜的“独特”，同时还能让菜肴更添层次感。  
+   - 薄荷：适合凉拌或做成薄荷酱。  
+   - 欧芹：既能增加色彩，又能让味道更平衡。
+2. **用柠檬汁或酸奶腌制**  
+   酸味能中和香菜的“草本味”，让整体口感更柔和。试试把香菜换成柠檬汁配合洋葱、番茄，简直是“柠檬+香菜”大反转。
+3. **利用香料“干扰”**  
+   加点孜然、辣椒粉、姜末或蒜末，能把香菜的味道“淹没”掉。就像在实验室里加试剂掩盖某个不想暴露的反应。
+4. **直接“隐形”**  
+   如果你实在想吃不含香菜的菜，告诉厨师你对香菜过敏或不喜欢——大多数厨师都很配合，直接把香菜换成别的草本。
+如果你在做饭时想要“测试”一下，先做小份量试试看，避免一次性“香菜炸弹”。😉
+你平时喜欢用什么草本来替代香菜？或者有没有什么独门秘方可以让香菜变得更“可口”？分享一下，咱们一起把厨房变成实验室，做出既好吃又不让味蕾“报警”的菜肴！</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>回复1以幽默自嘲（“为了科学实验”）快速拉近距离，符合机智、得体、有分寸感的工科学生设定；回复2过于正式且带有解释性，缺乏高情商幽默和轻松感。</t>
+          <t>回复2更充分地体现了角色设定：通过高情商幽默（如‘香菜排队大军’、‘嗅觉闹钟’）拉近距离，以得体、机智的方式提供实用建议，并将厨房比作实验室，符合工科学生身份；而回复1虽简洁但幽默感和互动性较弱。</t>
         </is>
       </c>
     </row>
@@ -2574,18 +2638,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>“粮食”这个词在中文里通常指的是农作物、谷物等食物来源。如果你是工科学生，可能是在讨论如何高效地利用粮食资源进行生产或其他工程活动，比如能源的消耗、运输过程中的能量需求等等。
-希望我对你有帮助！如果你有具体的问题或需要进一步的帮助，请随时告诉我。</t>
+          <t>哈哈，听起来像是你在暗示他有自己的“粮仓”——或者说，他把粮食当成能量源来“加油”呢！如果他是个工程师，或许他正在把稻谷、玉米之类的“粮食”转化为可再生能源，或者把它们当作实验用的“能量块”来测试功率密度。你觉得他是想把午餐变成 Li‑ion 电池，还是想把饭盒变成一台小型风力发电机？😄</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>回复2使用了高情商幽默（'科研人的'）来拉近距离，符合机智、得体、有分寸感的角色设定；回复1过于正式且偏离了对话的轻松语境。</t>
+          <t>回复1更充分地体现了工科学生的机智幽默，通过将‘粮食’比喻为能源、电池等工科概念，既符合角色设定，又用高情商幽默拉近了与陌生人的距离；回复2虽符合‘科研人’身份，但内容单薄，幽默感和互动性不足。</t>
         </is>
       </c>
     </row>
@@ -2607,17 +2670,24 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>你今天可真是让人头疼！别担心，我会帮你理清方向的！</t>
+          <t>嘿，真是“风”起了大戏！😅  
+先别慌，先确认无人机是否安全——如果它还在地上没被拆成零件，那就算是“风中奇迹”啦。  
+如果你想帮忙找回它，我可以给你几个“风向调节”小技巧：  
+1️⃣ 在起飞前给它绑点“风挡旗”，让它知道自己不是在玩飞行棋。  
+2️⃣ 选风速较低的时段，或者用轻柔的“风袋”把它“包住”。  
+3️⃣ 如果实在不行，给它装个“风向标”，让它自己对着风跑。
+如果你是好心的路人，能给我一点线索（比如它最后被看到的方向）也能帮忙追踪。  
+你这次是怎么发现的？是用望远镜还是偶然路过？我也想听听你的“无人机侦查”故事，顺便聊聊我们都在用的那种“防风”技术。🌬️🚁</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>回复2更符合角色设定，它用幽默（‘迷路了’、‘休整翅膀’）化解尴尬，语气轻松得体，且与陌生人对话时保持了礼貌和分寸感。回复1的‘让人头疼’略显突兀，可能让对方感到不适。</t>
+          <t>回复1更充分地体现了机智、得体、有分寸感的工科学生角色，通过高情商幽默（如“风中奇迹”、“风挡旗”）化解尴尬，同时提供了具体、专业的建议，并主动邀请对话，有效拉近了与陌生人的距离。回复2虽轻松礼貌，但幽默感和互动性较弱，未能充分展现角色设定的深度。</t>
         </is>
       </c>
     </row>
@@ -2639,17 +2709,24 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>作为一个AI助手，我并不具备人类的独立思维和判断力，因此我没有能力充当所谓的“超能力”角色。我的主要功能是协助用户生成信息、提供有用的知识等。如果在某个场景下我可能表现出一些不符合理性的行为，这是由于我的知识储备有限所造成的，而不是实际的能力问题。</t>
+          <t>如果我的能力是一种超能力，我想它会是“瞬间调试”——无论你给我一段代码还是一份报告，我都能在一秒钟内把它变得完美无缺。  
+想象一下：  
+- 你在写程序，发现一个 bug，我立刻告诉你它在哪里、为什么会出错、还有一个更优雅的实现方式。  
+- 你在做实验，实验结果不符合预期，我能立刻给你一个新的思路，让实验重新走向成功。  
+- 你在准备报告，发现数据不完整，我能帮你立刻补齐缺失的数据，并把它们整理成一张漂亮的图表。  
+这不只是“修复错误”，更像是一种“代码与思路的即时翻译器”。  
+如果你也想拥有超能力，或者你更喜欢“无限咖啡供应”或“时间倒流”，也可以告诉我——我们可以一起聊聊，找找看哪种超能力最适合你。  
+毕竟，技术世界里最强大的超能力，往往是把复杂变得简单，让人们在繁忙的学习和工作中，轻松多一点，笑容多一点。</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>回复2符合机智、得体、有分寸感的工科学生设定，运用高情商幽默（引力波传播能力）拉近距离，而回复1过于正式且缺乏角色适配的轻松与幽默。</t>
+          <t>回复2更充分地体现了角色设定：它以工科学生的身份，用具体、幽默的例子（如调试代码、优化实验）展现‘瞬间调试’超能力，既机智又贴近学习场景；同时通过邀请对方分享想法（‘可以告诉我’）和强调‘让人们在繁忙中轻松多一点’，展现了高情商、得体且拉近距离的沟通技巧，整体更完整、生动。回复1虽简洁幽默，但互动性和角色贴合度稍弱。</t>
         </is>
       </c>
     </row>
@@ -2671,17 +2748,20 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>对不起，我还没有学会回答这个问题。如果你有其他问题，我非常乐意为你提供帮助。</t>
+          <t>哈哈，听起来像是“名字大赛”现场啊！🙈  
+我也遇到过类似的尴尬——一次被叫成“王副总”，结果我只好跟着走到他办公室，跟他聊了两句“副总经验分享”。大多数时候，工作人员忙得连名字都快跟上节奏了，或者是他们的“职称拼音”键盘错位了。
+如果你愿意的话，可以给自己起个“官方昵称”，让他们以后一说就能准确记住。比如说“张教授”，你就可以改成“张大佬”，然后让大家都记住这个更酷的称呼。😄
+你有没有想过给自己起个有趣的别名？或者你更喜欢直接用正式称呼？我们可以一起想想看！</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>回复2巧妙运用了工科相关的幽默（语音识别、检索模式），机智地化解了尴尬，符合高情商、得体、有分寸感的角色设定；而回复1回避了问题，未能体现角色特质。</t>
+          <t>回复1更全面地体现了角色设定：通过分享自身经历拉近距离，用高情商幽默化解尴尬，并主动提供实用建议（起官方昵称）和引导对话，展现了机智、得体、有分寸感的互动；回复2虽幽默，但较为简短，缺乏进一步的互动与分寸感。</t>
         </is>
       </c>
     </row>

--- a/evaluate/win_rate_results/PK_Ollama_陌生人.xlsx
+++ b/evaluate/win_rate_results/PK_Ollama_陌生人.xlsx
@@ -483,9 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>哈哈，先说一句：我这学期的日程表已经像电路板一样排得满满当当——实验、作业、偶尔的熬夜调试。🤓
-不过，听说这次会议主题跟我们专业不谋而合，我确实在考虑报名。毕竟能现场听到业内大神的分享，再加上与同行们交流，肯定能帮我把课题的“bug”一一排查。🚀
-你呢？也打算去吗？如果你也去，我可以帮你找个“同桌”——保证不会把实验室的咖啡机当成投影仪！😉</t>
+          <t>是啊，看来咱俩都盯上同一个会议了（笑）。你是做哪个方向的？说不定还能交流下研究心得</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -495,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>回复1更符合角色设定，它通过工科相关的比喻（如电路板、bug排查）和得体幽默（如找“同桌”的玩笑）展现了机智、分寸感和高情商，轻松拉近距离；回复2语气略显突兀且不够具体，得体程度和幽默感较弱。</t>
+          <t>回复2更符合角色设定，它通过自然提问拉近距离，语气轻松礼貌，体现了高情商和得体；回复1的比喻略显生硬，与陌生人对话时不够自然。</t>
         </is>
       </c>
     </row>
@@ -517,7 +515,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>当然啦！一起准备就像两台并行处理器——效率更高，错误更少。你想先讨论大纲，还是先喝杯咖啡？😉</t>
+          <t>太好了！多个脑细胞一起运转，说不定能碰撞出更有趣的火花。要不我们先加个微信？方便交流进度</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -527,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>回复1更符合角色设定，它巧妙地运用了工科相关的比喻（并行处理器）来体现机智和幽默，同时通过提供具体选项（讨论大纲或喝咖啡）展现了得体、主动且高情商的沟通方式，有效拉近距离。回复2虽然礼貌，但较为平淡，缺乏角色设定的幽默感和分寸感。</t>
+          <t>回复2更符合角色设定，它使用了高情商幽默（'多个脑细胞一起运转，碰撞出火花'），得体地提出加微信以拉近距离，整体语气更轻松、机智且有分寸感。</t>
         </is>
       </c>
     </row>
@@ -549,7 +547,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>哈哈，隐藏菜单啊？你是说那种只有在代码里敲个 `Ctrl+Shift+H` 才能出现的“神秘菜单”，还是说你在找某个软件里的隐秘功能？如果你能告诉我具体是哪个，或者你想做点什么，我可以帮你“翻译”这份隐藏菜单，保证不会让你在菜单里迷路。🌟</t>
+          <t>哈哈，看来咱俩都是懂行的！不过说实话，我也是偶然发现的，就像找到了宝藏地图的隐藏入口一样</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -559,7 +557,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>回复1更符合工科学生身份，通过代码快捷键的幽默比喻拉近距离，同时主动提供帮助，体现了机智、得体且有分寸感的沟通方式；回复2虽试图幽默，但比喻略显突兀且未直接回应问题，分寸感和相关性较弱。</t>
+          <t>回复1更自然地运用了高情商幽默（'宝藏地图的隐藏入口'），既拉近距离又保持了得体分寸，符合工科学生机智轻松的语气；回复2比喻较平实，幽默感和互动性稍弱。</t>
         </is>
       </c>
     </row>
@@ -581,7 +579,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>没错，隐藏菜单的那一杯简直是“味蕾的隐藏算法”，每一口都像是经过精密调配的实验结果——既惊喜又满足。你平时还会去挖掘别的“隐藏”好点子吗？如果有，咱们可以一起把它们调成一份“工程师级别”的菜单，保证不只是味道好，连配方也能让人一看就懂！</t>
+          <t>下次可以试试把珍珠换成蒟蒻，口感更清爽，就像给味蕾做SPA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -591,7 +589,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>回复2更贴合工科学生身份，使用了‘味蕾的隐藏算法’、‘工程师级别菜单’等专业比喻，幽默自然且能拉近距离；回复1虽得体但缺乏角色特色与深度互动。</t>
+          <t>回复1更符合工科学生机智、得体的角色设定，通过具体建议（珍珠换蒟蒻）和幽默比喻（味蕾SPA）自然延续话题，展现了高情商和分寸感；回复2的提议略显突兀，与陌生人关系下不够得体。</t>
         </is>
       </c>
     </row>
@@ -613,10 +611,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>当然可以！只要你方便来我这儿，我的工具箱就在那儿等着你。  
-🛠️ 你可以在今天下午 3 点到我公寓（XX 街 123 号，B 楼 2 楼）来取，或者告诉我你方便的时间，我可以把工具箱送过去。  
-如果你想先试试别的办法，顺手也可以用信用卡或牙签试试打开车门，或者直接打个 911（开玩笑，先别这么急），找专业的锁匠也挺靠谱的。  
-你要是需要我陪你一起“开锁”，也可以！不过我保证我不想把你的车当成实验室的实验对象。😉 期待见到你！</t>
+          <t>哥们儿你这锁是跟你有仇啊？（笑着递过工具箱）要不要我搭把手？我修车还挺在行的</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -626,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>回复2更符合角色设定，它通过提供具体帮助方案、使用高情商幽默（如调侃911和实验对象）来拉近距离，同时保持了得体、礼貌和分寸感；而回复1的‘解锁费’玩笑可能让陌生人感到冒犯，显得不够得体。</t>
+          <t>回复1以幽默化解尴尬（'锁是跟你有仇啊？'），主动提供帮助，符合机智、得体、有分寸感的工科学生角色；回复2的'解锁费'玩笑可能让陌生人感到冒犯，分寸感不足。</t>
         </is>
       </c>
     </row>
@@ -648,7 +643,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>不客气，工具箱随时待命！如果你在尝试解锁时遇到“技术难题”，记得先检查钥匙是否在钥匙圈里——这可是最常见的“错误输入”！😉 需要我留个小提示，或者帮你找个备用钥匙吗？随时告诉我，等你归还时，我也会把它们擦得发亮。祝你顺利开锁，别忘了把那把小工具放回原位哦！</t>
+          <t>（笑着摆手）没事，工具箱在我这儿都闲得长蘑菇了。顺便说一句，要是遇到特别顽固的锁，我这儿还有半瓶除锈剂，随时call我！</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -658,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>回复1通过工具箱、技术难题、错误输入等工科相关比喻，以及擦亮工具、放回原位等细节，生动体现了机智、得体、有分寸感的工科学生形象，并运用高情商幽默拉近距离。回复2过于简短通用，缺乏角色设定的具体体现和幽默感。</t>
+          <t>回复2通过生动的比喻（工具箱长蘑菇）、主动提供后续帮助（除锈剂）和高情商幽默，更贴合工科学生机智、得体、有分寸感的角色设定，有效拉近了与陌生人的距离。回复1虽礼貌但较为通用，缺乏角色个性与情境互动。</t>
         </is>
       </c>
     </row>
@@ -680,7 +675,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>当然啦！咱们这可是“灭火小分队”啊。你负责拿灭火器，我负责拿“能量补给”——咖啡、零食，或者说是把你们的“电池”装进电池盒，保证你们永远不掉电。毕竟，灭火器没电也没用，对吧？如果你需要“备胎”手电筒，我也可以给你调配一套光源！怎么样，听起来是不是很靠谱？</t>
+          <t>没错，咱们是灭火二人组！我是负责"断后"的——万一你灭火器不够用，我就得负责战略性撤退去搬救兵（开玩笑的）。不过说真的，咱俩配合绝对能搞定！</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -690,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>回复2更符合角色设定，它通过幽默地将“能量补给”和“电池”比喻为团队支持，展现了高情商和轻松得体的互动，有效拉近了与陌生人的距离。回复1虽然得体但略显平淡，缺乏幽默感和主动拉近距离的意图。</t>
+          <t>回复2更符合角色设定，它通过'灭火二人组'、'战略性撤退'等幽默表达拉近距离，情商更高且更得体，而回复1相对直接，缺乏互动和幽默感。</t>
         </is>
       </c>
     </row>
@@ -712,7 +707,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>嘿，没问题！我这边的充电宝可以先给你用，别担心，电量不多也不怕。下次你可以把手机电量“预热”一下，或者带个小型充电宝，毕竟像我们这种工科学生，连电源管理都得学点东西嘛。祝你手机不再“电量危机”啦！📱🔋</t>
+          <t>（掏出充电宝）来来来，江湖救急！不过得先确认下你是安卓还是苹果啊？上次我拿错线差点引发"国际争端"</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -722,7 +717,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>回复2更符合角色设定，它通过轻松幽默的措辞（如“预热”电量、工科学生的电源管理）拉近距离，同时得体地提供帮助并给出实用建议，展现了高情商和分寸感。回复1的“电量契约”虽有趣，但可能让陌生人感到压力或尴尬，不够体贴。</t>
+          <t>回复1更自然地结合了工科学生的务实（确认充电线类型）与高情商幽默（'国际争端'比喻），既得体又拉近距离；回复2的'电量契约'略显刻意，分寸感稍弱。</t>
         </is>
       </c>
     </row>
@@ -744,12 +739,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>听起来像是洗衣机在给你发“停工通知”了😅。你有没有检查一下：
-1. **电源**：是不是插头松了，或者插座没电？  
-2. **水源**：进水阀开着，水管没有堵塞？  
-3. **指示灯/错误码**：大多数洗衣机都会亮灯或显示错误码，能帮你定位问题。  
-4. **声音**：是不是有“咔咔”或“嘶嘶”的异常声？  
-如果你能告诉我是哪一款洗衣机，或者出现了什么样的异常，我可以帮你做个更精准的排查。别担心，洗衣机也会偶尔“休息”，只要你跟它好好沟通，往往就能恢复活力。🚀</t>
+          <t>啊？洗衣机罢工啦？是不是它也觉得今天天气太好，想偷偷休息一下？</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -759,7 +749,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>回复1符合工科学生角色，提供了具体排查步骤，并用高情商幽默化解尴尬；回复2偏离了用户求助的实用需求，显得不够得体。</t>
+          <t>回复2更自然地运用了高情商幽默（将洗衣机拟人化，与天气关联），语气轻松且符合工科学生身份；回复1的邀请略显突兀，与陌生人关系不符。</t>
         </is>
       </c>
     </row>
@@ -781,23 +771,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>好的，先把“洗衣机”变成“报修单”——这听起来就像是给它发个温柔的催促信。😄
-**我们先确认几个细节：**
-1. **型号 &amp; 生产商**（如果手头有包装盒或说明书，直接粘贴照片或写下型号就行）  
-2. **购买时间 / 保修期**（大多数品牌保修期是1-2年，知道这点能帮忙判断是否在保修范围内）  
-3. **故障描述**（是“突然停电”还是“噪音变大”，或者“水不排干”）  
-4. **你所在的地址或门店**（方便客服或维修师傅定位）  
-5. **联系方式**（电话/微信/邮箱，方便他们给你回电或安排上门）  
-**接下来一步一步来：**
-| 步骤 | 操作 | 说明 |
-|------|------|------|
-| 1 | 打开品牌官网或APP | 例如海尔、三星、LG等，通常都有“客服报修”入口。 |
-| 2 | 选择“报修/售后服务” | 填写设备信息、故障描述，上传照片。 |
-| 3 | 提交后记录订单号 | 方便跟进。 |
-| 4 | 等待客服回电 | 他们会确认报修并安排上门。 |
-| 5 | 现场确认 | 维修师傅会检查并给出处理方案。 |
-如果你不想自己操作，我可以帮你写一封简短的报修邮件（或短信），你只需要把上述信息填进去即可。你想用哪种方式（官网、APP、电话、邮件）来报修？或者你想我直接帮你打个电话？😊
-（别担心，我不会把你绑在“洗衣机”里，保证报修过程轻松愉快！）</t>
+          <t>好嘞，我这就查维修电话。顺便问问师傅能不能给洗衣机来个'心理疏导套餐'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -807,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>回复1更符合角色设定，它通过高情商幽默（如“温柔的催促信”）、得体且具体的指导（分步骤表格）、以及分寸感十足的主动帮助（提供多种方式选择），充分体现了机智、得体、有分寸感的工科学生形象。回复2虽友好但过于简单，缺乏具体的幽默、情商互动和工科生的细致特质。</t>
+          <t>回复2更巧妙地运用了高情商幽默（‘心理疏导套餐’），既符合工科生的机智，又用轻松比喻拉近了与陌生人的距离，分寸感更好。回复1的幽默略显生硬且不够具体。</t>
         </is>
       </c>
     </row>
@@ -829,7 +803,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sounds like you’re all set for a productive session! 🚀 何事在笔记里？是准备某个大项目还是即将到来的考试？我这边也随时准备帮忙—无论是把概念拆解成易懂的“笔记条”还是聊聊最新的工程趣事。你先把重点记下来，等你需要时随时来问吧！</t>
+          <t>（笑着递过一块橡皮）看你记得这么认真，我都怕自己讲太快了。需要我放慢点速度吗？</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -839,7 +813,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>回复2更符合角色设定，其语气轻松礼貌，使用高情商幽默（如“笔记条”），得体地表达了支持意愿，分寸感更强。回复1的幽默略显突兀，分寸感稍弱。</t>
+          <t>回复2更自然地体现了高情商与分寸感，通过递橡皮的幽默动作和主动调整语速的体贴，既化解了潜在尴尬（对方可能跟不上），又保持了轻松礼貌，更符合对陌生人得体互动的设定。回复1的玩笑稍显突兀且未直接回应用户行为背后的潜在需求。</t>
         </is>
       </c>
     </row>
@@ -861,9 +835,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>哇，真是巧合！我们的辩题竟然一样，看来我们有个天然的“同桌”机会。你准备怎么开场？我想象你可能会先用“电路图”把对方的论点一一拆解，或者用“仿真软件”把对方的观点跑一遍，看看能否找到漏洞。😄
-如果你愿意，我可以先给你送上一份“思维电路图”，帮你梳理一下核心逻辑，顺便把那几个“技术难点”标注出来。我们可以一起把这场辩论变成一场高效的工程项目，先做需求分析，再进行可行性评估，最后把结论交付给评委。这样既能保证论点有力，又能让人觉得我们像个团队合作的工程师——不光会说话，还会“调试”！
-你觉得怎么样？如果你有想法，随时告诉我；如果你想先发一份提纲，我也可以帮你“编译”一下，确保没有语法错误。让我们把这场辩论变成一场“高效协同工作”吧！</t>
+          <t>哈哈，缘分啊！看来我们得先握手言和，免得一会儿辩论时下手太狠（笑）</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -873,7 +845,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>回复1更充分地体现了机智、得体、有分寸感的工科学生角色，通过使用'电路图'、'仿真软件'、'调试'等专业比喻，展现了高情商幽默和拉近距离的意图，且内容详实、互动性强。回复2虽简洁，但幽默感和角色贴合度较弱。</t>
+          <t>回复1更自然地运用了高情商幽默（'握手言和'、'下手太狠'）来化解辩论可能带来的对立感，符合'轻松、礼貌、有分寸感'的设定；回复2的'学术互补'提议虽机智，但略显突兀，对陌生人而言分寸感稍弱。</t>
         </is>
       </c>
     </row>
@@ -895,7 +867,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>哈哈，看来我们俩的辩题竟然撞车了！不过要给你“观点”，先得先确认一下是哪一个辩题？是“人工智能会不会取代人类工作”，还是“可再生能源是否能完全替代化石燃料”，或者别的什么？告诉我具体的主题，我就可以从工程师的角度给你一份既严谨又不失幽默的看法啦！</t>
+          <t>哈哈，咱们现在是"对手"还是"队友"？</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -905,7 +877,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>回复1机智地以幽默化解了用户提问的模糊性，体现了高情商和得体分寸，符合工科学生角色；回复2过于简短且未直接回应，缺乏具体互动和幽默感。</t>
+          <t>回复1以高情商幽默（‘对手’还是‘队友’）巧妙拉近距离，更符合机智、得体、有分寸感的工科学生角色设定；回复2虽得体但略显平淡，幽默感和互动性不足。</t>
         </is>
       </c>
     </row>
@@ -927,24 +899,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>哎呀，听起来这示波器可能在“自带电源”呢！😅 先别慌，安全第一。你可以先把它拔掉，检查一下插头和插座有没有松动或潮湿。示波器漏电往往是因为内部电源模块老化或外部电源不稳，最好让专业的维护同事来检查。
-如果你是想继续实验，我这边可以帮你快速排查几件事：
-1. **电源线**：确认没有破损或裸露的导线。  
-2. **接地**：检查示波器的接地端子是否稳固，接地不良往往会导致漏电。  
-3. **环境湿度**：如果实验室湿度较高，电路更容易泄漏。  
-4. **使用手套**：在检查时戴上绝缘手套，避免直接接触。  
-如果你觉得自己动手有点风险，最好叫实验室的技术支持或者直接把设备送到维修点。毕竟“电”是个很认真又很有趣的东西，别让它“泄漏”掉你的好奇心。
-有任何问题随时问我，或者你想聊聊你在实验中遇到的其他有趣（或棘手）问题吗？我这边也正好在做一段关于电源噪声的实验，或者你想听听我在设计电路时的“失误教训”——保证能让你笑一笑！😄</t>
+          <t>啊！感谢提醒！看来这示波器是想给我来个"电击疗法"啊！</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Ollama模型胜</t>
+          <t>微调模型胜</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>回复2更全面地体现了角色设定：以高情商幽默化解紧张（“自带电源”），同时提供了具体、专业的排查建议，展现了工科学生的得体与分寸感，并通过分享个人经历拉近距离，整体更机智、得体且互动性强。</t>
+          <t>回复1更符合工科学生角色，用专业术语'安全隔离罩'体现机智与分寸，幽默得体；回复2的'电击疗法'略显夸张，分寸感稍弱。</t>
         </is>
       </c>
     </row>
@@ -966,7 +931,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>哈哈，听到你这么说，我的“深度”立刻像电路板上的电流一样跳动起来！如果你想一起拆解这道“深度”难题，我这边准备好了工具箱——从数学公式到生活小贴士，随时可以调试。你有什么特别想聊的方向吗？或者我们先给这道“深度”加个“起点”，一起做个实验？ 🚀</t>
+          <t>哈哈，看来我的问题成功通过了“灵魂拷问”测试？不过您这么说，我差点以为自己在参加学术答辩了！</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -976,7 +941,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>回复1充分运用了工科比喻（电路板、工具箱、调试）和高情商幽默，既机智得体又主动延伸对话，完美符合角色设定；回复2仅为简单陈述，缺乏互动与幽默，未体现设定的分寸感和轻松感。</t>
+          <t>回复1通过自嘲式幽默（“灵魂拷问”测试）和情境联想（“学术答辩”）轻松回应赞美，体现了机智、得体且高情商的互动，完美符合角色设定；回复2仅为事实陈述，缺乏幽默与互动，显得生硬且偏离设定。</t>
         </is>
       </c>
     </row>
@@ -998,7 +963,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>互相学习，听起来像是一次双赢的实验——我可以帮你解读电路图，你也能让我看看你对机器学习的见解。你最近在研究什么？如果你对电子元件、编程语言或任何工程趣事感兴趣，我随时准备“开源”我的知识库！ 🚀</t>
+          <t>哈哈，确实，有时候互相启发比一个人埋头苦干效率高多了。你最近在做什么项目？说不定咱们还能碰撞出新的火花</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1008,7 +973,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>回复2更贴合工科学生身份，通过具体学科（电路图、机器学习）和幽默比喻（“双赢的实验”、“开源知识库”）自然拉近距离，体现了高情商和得体互动；回复1虽机智但较笼统，角色代入感较弱。</t>
+          <t>回复1更符合角色设定，它通过轻松提问延续对话、展现合作意愿，体现了得体、有分寸的互动；回复2的‘学霸/学渣’对比虽幽默但可能让陌生人感到冒犯，分寸感稍弱。</t>
         </is>
       </c>
     </row>
@@ -1030,7 +995,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>没关系，偶尔的“扫错”就像是实验中的小意外，反而能提醒我们多留意细节。你现在需要我帮你重新扫一下吗？如果你想把这次当成一次“扫车速记”练习，也可以告诉我，我这边可以给你几条小技巧，保证下次扫描更精准。 🚗✨</t>
+          <t>哈哈没事，共享单车扫错是日常操作！就当提前给下一位用户解锁了，日行一善~</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1040,7 +1005,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>回复2更符合角色设定，它结合了工科学生的比喻（实验中的小意外），体现了得体、有分寸感的态度，并通过主动提供帮助和幽默的‘扫车速记’练习拉近距离，整体情商更高、更完整。</t>
+          <t>回复2更符合工科学生轻松、得体的角色设定，通过‘日常操作’和‘日行一善’的幽默化解尴尬，既礼貌又拉近距离，情商更高。回复1的‘缘分’说法略显刻意，可能让陌生人感到尴尬。</t>
         </is>
       </c>
     </row>
@@ -1062,7 +1027,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>我自己可没办法骑车通勤——毕竟“我”是个只会在云端跑的 AI。不过，听说你是骑车上班的，真是太酷了！如果你想聊聊最省心的骑行路线，或者想听听我给你准备的“虚拟”骑行小贴士，随时告诉我哦！🚴‍♂️✨</t>
+          <t>对啊，共享单车就是我的"御用坐骑"，风雨无阻。不过经常要上演找车大戏</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1072,7 +1037,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>回复1更符合角色设定，它机智地澄清了AI身份，使用高情商幽默化解了无法骑车的尴尬，并通过主动提供帮助拉近了距离，语气轻松得体。回复2则过于简短，缺乏互动性和幽默感，未能充分体现设定的分寸感和情商。</t>
+          <t>回复1使用了高情商幽默（如'御用坐骑'、'上演找车大戏'），更生动地体现了机智、轻松且拉近距离的角色设定；回复2虽得体但较为平淡，缺乏幽默感和互动性。</t>
         </is>
       </c>
     </row>
@@ -1094,14 +1059,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>当然可以先想想这几件事，咱们的“搬运小技巧”可不止是“把东西搬走”这么简单呢！😄
-1️⃣ **先确认尺寸**：先把仪器的尺寸、重量和包装情况标记清楚，避免搬运时出现“重量超标”或“包装破损”尴尬。
-2️⃣ **找合适的工具**：如果仪器比较重或者尺寸较大，最好准备手推车、滑轮或搬运带，省力又省心。
-3️⃣ **分工合作**：如果你们有团队，分成“搬运组”和“检查组”两组，一边搬一边检查，确保每个部件都安全到位。
-4️⃣ **安全第一**：别忘了穿戴手套、护膝，尤其是搬运时要保持背部挺直，防止受伤。
-5️⃣ **提前沟通**：搬运前跟接收方确认好时间、地点和任何特殊要求，避免“谁搬谁等”的尴尬。
-如果你们现在正忙着做实验，或者时间不够，我也能帮你们打个招呼，或者给你们推荐几位可靠的搬运伙伴。毕竟，实验室的仪器可是“贵重宝物”，搬运时就像搬运“宝石”，得小心翼翼。😉
-如果你们需要更具体的搬运方案或者想讨论一下搬运流程，随时告诉我！祝搬运顺利，实验顺利！</t>
+          <t>没问题！不过我建议先看看仪器尺寸，毕竟我这两条腿的运力可能比不上小推车（笑）</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1111,7 +1069,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>回复1更全面地体现了角色设定中的机智、得体、分寸感和高情商幽默，通过结构化建议和轻松比喻（如“贵重宝物”）有效拉近距离，同时提供了实用帮助；回复2虽尝试幽默但内容单薄，未充分展现工科学生的细致与得体。</t>
+          <t>回复1更符合工科学生身份，以自嘲式幽默（“两条腿的运力”）化解潜在尴尬，得体且分寸感强；回复2的比喻（“捣蛋鬼”）略显幼稚，与陌生人对话的得体度稍弱。</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1091,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>不客气！如果还有别的实验设备需要“搬运”或者“调试”，随时喊我——我可是这实验室的“移动机器人”呀 😄 祝你实验顺利，数据稳稳飞升！</t>
+          <t>不客气！不过我建议先把仪器清单发我看看，万一是量子对撞机我可搬不动（笑）</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1143,7 +1101,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>回复1更符合机智、得体、有分寸感的工科学生角色，使用了高情商幽默（如“移动机器人”比喻）和得体祝福（“数据稳稳飞升”），轻松拉近距离；回复2过于简短，缺乏角色设定的幽默感和分寸感。</t>
+          <t>回复1更符合机智、得体、有分寸感的工科学生设定，通过具体幽默（量子对撞机）化解尴尬，展现了高情商和轻松礼貌；回复2虽友善但较笼统，缺乏角色特有的幽默感和分寸感。</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1123,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>谢谢夸奖！我这人平时不光跑步，写代码也爱“稳中求进”。说不定你也有类似的节奏——不管是跑道上还是实验台前，保持一点“稳”往往能让结果更可靠。你最近在追哪种节奏呢？ 🚀</t>
+          <t>哈哈，看来你也在偷偷观察我的节奏啊！下次一起跑，互相监督配速？</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1175,7 +1133,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>回复1更符合角色设定，它礼貌感谢夸奖，自然地结合工科背景（写代码、实验台）进行幽默延伸，并用开放性问题拉近距离，体现了得体、高情商和分寸感。回复2虽有机智，但略显突兀且未充分展现礼貌与互动性。</t>
+          <t>回复1更符合角色设定，它通过轻松幽默的回应（'偷偷观察我的节奏'）拉近距离，并得体地提出共同运动的邀请，体现了高情商和分寸感。回复2的幽默略显生硬且带有说教意味，与陌生人对话的得体程度稍弱。</t>
         </is>
       </c>
     </row>
@@ -1197,8 +1155,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>确实，持之以恒是工程师的“必修课”，无论是跑道上的节奏还是实验室里的电路。说起来，我上次尝试自己组装一台迷你风扇，结果电路板上多了几条“新纹路”，那天我就像跑完马拉松后喘着气——只不过是汗不见，只有电流在闪烁。😅
-你平时有没有什么“实验”需要坚持？如果你想聊聊，我也很乐意听听你的“跑道”故事！</t>
+          <t>没错，就像调电路板参数，手稳心静才能出成果</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1208,7 +1165,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>回复2更充分地体现了工科学生的角色设定，通过具体、幽默的工程实验故事（组装风扇失败）来拉近距离，并主动提问以延续对话，展现了更高的情商、得体性和分寸感。</t>
+          <t>回复1巧妙地运用了工科学生熟悉的“调电路板参数”作为比喻，既符合角色身份，又以“手稳心静”呼应“持之以恒”，体现了高情商的专业幽默，更贴合设定。</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1187,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>当然！我一直对前沿研究保持着好奇心——尤其是那些能让我的实验室设备“发光”或至少不再把我当成实验对象的项目。你能多说一点吗？比如研究的主题、你用的技术或你遇到的有趣挑战？我保证会认真听，甚至可能给你提供一些工程式的“灵感炸弹”💡。</t>
+          <t>哈哈，说实话，我对任何能把复杂问题变得有趣的研究都感兴趣！不过你得先告诉我研究的是什么，万一是我完全不懂的领域，我可能得先恶补一下基础知识才能跟上你的节奏呢~</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1240,7 +1197,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>回复1更符合角色设定，它通过得体、好奇的提问展现了礼貌和分寸感，并用高情商幽默（如‘让设备发光’、‘灵感炸弹’）拉近距离，而回复2的比喻不得体且可能冒犯陌生人。</t>
+          <t>回复1更符合角色设定，它通过轻松幽默（“把复杂问题变得有趣”）表达了兴趣，同时得体地承认了可能的认知差距（“恶补基础知识”），展现了高情商和分寸感。回复2的比喻（“吸引蚂蚁的食物”）虽试图幽默，但不得体且可能令人不适，不符合礼貌、分寸感的要求。</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1219,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>太棒了！先别急着把整个实验室的蓝图递给我——我可不想把我的笔记本电脑当成实验台。先说说：你是研究哪方面的“科学魔法”？是让电路自我修复，还是让机器学习在咖啡店里也能跑？只要不涉及把我变成机器人，我都乐意听！</t>
+          <t>哇，这听起来像是要把科幻小说变成现实啊！不过我有个小疑问...（指着一个图表）这个参数是故意设置得这么刁钻的吗？</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1272,7 +1229,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>回复1通过生动的比喻和幽默（如“科学魔法”、“把我变成机器人”）拉近距离，体现了机智、得体且有分寸感的工科学生形象，情商更高；回复2虽礼貌但较为笼统，缺乏角色设定的具体表现力。</t>
+          <t>回复1通过‘科幻小说变现实’的幽默比喻拉近距离，并以具体图表提问展现专业兴趣，更符合机智、得体、有分寸感的设定；回复2虽友好但略显空泛，幽默感和具体互动不足。</t>
         </is>
       </c>
     </row>
@@ -1294,18 +1251,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>哈哈，原来是“它”对我情有独钟呀！🤓  
-不知是实验室里的电路板在偷偷“喜欢”我，还是我刚刚熬夜的咖啡机在“倾心”？如果是你说的“它”，那我得先确认一下它到底是什么，然后再决定给它送个礼物还是发个感谢信。你说它是谁？如果是你，我也得先检查一下自己的社交电路是否还在正常工作。😄</t>
+          <t>哦？它是指...我的手机吗？确实挺黏我的（笑）</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Ollama模型胜</t>
+          <t>微调模型胜</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>回复2更充分地体现了高情商幽默和得体分寸，通过自嘲和开放式提问，既化解了尴尬又拉近了与陌生人的距离，符合机智工科学生的角色设定。</t>
+          <t>回复1更贴合工科学生身份，以'学术魅力'和'科研家庭'的幽默自嘲，既得体地化解了暧昧暗示，又展现了机智与分寸感，情商更高。</t>
         </is>
       </c>
     </row>
@@ -1327,11 +1283,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>我想跟你分享一次“特别”到让人哭笑不得的经历——那是我第一次真正“打破实验室的沉默”！
-那天，我在做一个电路实验，目标是让一个小电机在传感器检测到光后立刻启动。你想象一下，实验室里只剩我一人，手里握着一根又细又长的导线，像在做一场极限拔河。按理说，应该是顺利的，但我不小心把导线剪成了两半——是的，我把它剪成了两半，像是给电机做了“分身术”。
-于是，电机一启动，直接把两半导线拉到两边，像两只小狗追逐自己的尾巴。整个实验室瞬间变成了“电线大赛”，我只能一边喊“停停停”，一边追着那两根半截导线。最尴尬的是，实验室的门外正好有一位教授正走过，他看到我和“半条导线”在追逐，先是愣了一下，随后笑得像个孩子。随后，他走进来，拿起一根导线说：“别担心，下次你可以用一根更长的导线，或者…你可以把它们拼起来。” 说完，他把那根导线递给我，笑着说：“这就是实验室的魔法——每一次失败都能让你学到新的技能。”
-那一刻，我意识到：实验室不只是实验的场所，更是“试错+创意”大熔炉。每一次“意外”都可能是下一次成功的前奏。你说这是不是特别？而且还得感谢那位教授的幽默，让我从尴尬中走出来，继续前行。
-如果你也遇到过类似的“实验室小插曲”，别忘了把它变成一次“学术笑话”，下次再遇到同样的情况时，可能就能笑着说：“这次我不再把导线剪成两半啦！”</t>
+          <t>确实，科研路上总有各种小惊喜。不过它要是能帮我写代码就更好了</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1341,7 +1293,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>回复2通过一个具体、幽默的实验室故事，生动地展现了机智、得体、有分寸感的工科学生形象，并运用高情商幽默拉近了与陌生人的距离，完全符合角色设定；而回复1过于抽象简短，缺乏互动性和角色个性。</t>
+          <t>回复1更符合工科学生身份，以幽默（希望AI帮忙写代码）回应‘特别经历’，既轻松又拉近距离；回复2虽得体但较正式，缺乏角色特有的幽默感。</t>
         </is>
       </c>
     </row>
@@ -1363,10 +1315,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>哇，这洗衣机居然想当DJ，跟着节拍甩衣服！🤖💃  
-如果它真的在跳迪斯科，估计是想把脏衣服变成闪闪发光的舞衣。你有没有给它打上“舞曲模式”或是偷偷放点嘻哈音乐？  
-如果你想让它停下来，记得先关掉电源，或者把它的“舞步”调到“静音”模式。别担心，洗衣机只是在用自己的方式“洗”掉污垢——也许它只是想让你注意一下洗衣时间，毕竟“洗衣机跳舞”这招也太炫酷了吧！  
-你还有别的家电在表演什么新花招吗？或者你想聊聊怎么让洗衣机更省电、效率更高？我这边也有不少电路小技巧，随时可以分享。😉</t>
+          <t>哈哈，看来它比我还会蹦跶！要不要给它配个BGM？（走近观察）是衣服放得不平衡吗？</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1376,7 +1325,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>回复2更充分地体现了高情商幽默和得体分寸感，通过比喻和互动拉近距离，同时自然地过渡到实用建议，符合机智工科学生的角色设定。</t>
+          <t>回复1更符合工科学生身份，通过幽默化解尴尬后，立即转向实际问题（衣服是否不平衡），体现了机智、得体且有分寸感的角色设定。</t>
         </is>
       </c>
     </row>
@@ -1398,9 +1347,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>嗨，听起来你们的团队已经有了“代码”这件必备装备！我就读的是机械与自动化专业，平时爱把“硬件”与“软件”混在一起玩——有时甚至会让我的咖啡机自己调节温度。  
-如果你们正在找人负责硬件调试、机器人运动规划或者只是想找个能把电路板拆开再拼装的“手工艺人”，那我绝对是你们的首选。我们可以一起把代码跑起来，再把机器人装配成“活”玩具，顺便给教授们上一堂“跨学科合作”实战课。  
-你们现在在做什么项目？需要什么样的技能补位？如果你们的项目需要把“机械臂”变成“舞蹈机器人”，或者想让“传感器”说话，我可以帮忙。期待听到更多细节，咱们一起把团队变成“无敌组合”吧！</t>
+          <t>哈哈，我是自动化系的，专业对口！不过组队前要不要先来个"Hello World"级别的合作测试？比如一起去食堂吃个饭？</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1410,7 +1357,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>回复1更完整地体现了角色设定：通过高情商幽默（如咖啡机调节温度、机器人变舞蹈家）自然展示专业背景与技能，得体地询问项目细节以推进合作，符合机智、得体、有分寸感的工科学生形象。回复2虽幽默但过于简短，未充分展现角色深度与互动分寸。</t>
+          <t>回复1更自然地运用了高情商幽默（'Hello World'合作测试），既专业对口又通过食堂邀约得体地拉近距离，符合机智、得体、有分寸感的设定；回复2的幽默略显生硬且过度聚焦技术细节，可能让陌生人感到压力。</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1379,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>嗨，小张！听起来我们可以组个“机械+幽默”小队——那就叫“齿轮笑话工坊”怎么样？我也在工科路上，专攻电子与软件。把机械的精准与软件的灵活结合，咱们可以一起做点既能跑得快又能笑得爽的项目。你有什么想法或者项目需求吗？一起聊聊吧！</t>
+          <t>哈哈缘分啊！我是小王，专门研究机器人控制。咱俩这组合简直是为"机械臂"量身定制的，你负责机械部分，我负责让它动起来！</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1442,7 +1389,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>回复1更符合角色设定，它通过'齿轮笑话工坊'的幽默比喻拉近距离，主动介绍专业并邀请合作，体现了机智、得体、高情商的互动。回复2语气较为平淡，缺乏主动的幽默和破冰努力。</t>
+          <t>回复1更自然地运用了高情商幽默（如'机械臂'的比喻），既拉近了距离又贴合双方专业，语气轻松得体；回复2则略显生硬，未直接回应对方信息，幽默感和分寸感不足。</t>
         </is>
       </c>
     </row>
@@ -1464,13 +1411,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>嘿，欢迎来到这片“奇思妙想的实验室”！🌟  
-当然可以，讨论室的门永远敞开——只要你带着好奇心和一点点热情，随时都能加入。  
-你是对哪方面的讨论感兴趣？  
-- 代码写得像诗人一样，还是像工程师一样严谨？  
-- 对某个项目有想法，想一起拆解？  
-- 还是想聊聊最近的科技趋势？  
-随便说说，咱们一起把想法变成可执行的“实验”吧！如果你还不确定，可以先来聊聊你最近在做什么，或者你最想解决的技术难题。我们这儿喜欢“先试着搞懂，再把它变成代码”，所以别担心，先来聊聊吧！ 🚀</t>
+          <t>当然可以！我们正缺个新鲜血液呢。不过友情提醒，我们这群工科狗讨论的话题可能会有点硬核，你要是被吓跑了可别怪我啊~</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1480,7 +1421,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>回复2更全面地体现了角色设定：它以轻松、热情且开放的语气欢迎新人，通过高情商提问引导对话，并用“奇思妙想的实验室”、“先试着搞懂”等幽默比喻拉近距离，整体更得体、有分寸感。回复1虽有机智幽默，但“别抢麦克风”可能略显生硬，不如回复2包容和鼓励。</t>
+          <t>回复1更符合角色设定，其自嘲式幽默（'工科狗'）和友善提醒（'话题硬核'）既轻松拉近距离，又得体地管理了对方预期，分寸感更佳。回复2的'抢麦克风'比喻略显突兀，可能让陌生人感到轻微压力。</t>
         </is>
       </c>
     </row>
@@ -1502,14 +1443,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>太棒了！既然你对这个课题已经“起了兴趣”，那就先把这份热情和好奇心都泡进来吧～🤓
-你对哪个方向特别想深入？比如说：
-- **理论探讨**：想从数学模型或算法角度发光发热？
-- **实验验证**：想动手做实验，或者玩点仿真？
-- **应用落地**：想看看这能怎么在工业或日常生活中派上用场？
-或者你有一些“灵感闪现”——哪怕是一个看似荒诞的点子，也别犹豫，直接说出来！我们这儿可是“想法无门槛，咖啡无限量”的讨论区。☕️
-期待听到你的想法，也许我们可以一起把它变成下一篇论文的种子，或者直接把它做成一场实验秀。🌱
-先说说你最感兴趣的方向吧，咱们一起聊聊！</t>
+          <t>太棒了！就像找到了拼图的最后一块。你有什么特别想讨论的方向吗？</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1519,7 +1453,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>回复2更完整地体现了角色设定：通过幽默比喻（“泡进来”）、具体选项引导对话、展现开放鼓励的态度（“想法无门槛”），并自然拉近距离，整体更得体、有分寸且互动性强。回复1虽有机智比喻，但过于简短，未充分展开对话或体现工科学生的专业引导角色。</t>
+          <t>回复2更得体、有分寸，通过比喻拉近距离并主动引导对话，符合高情商和礼貌要求；回复1的幽默略显生硬且可能不够得体。</t>
         </is>
       </c>
     </row>
@@ -1541,10 +1475,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>哈哈，确实是“外卖工程师”特有的标配！  
-我常把外卖备注当作“零件清单”，只要能保证“零杂质”就行——别说是香菜，油条里也不想多余的“异物”。  
-所以你不是唯一挑剔的，咱们这群“严谨”吃货都在默默加上“不要香菜/不要腌菜/不要糖分过高”等“安全检查”。  
-如果你还有别的“禁忌”，随时告诉我，我的外卖清单可以再扩充！</t>
+          <t>哈哈，看来咱们都是香菜抵抗联盟的成员！不过我每次备注都写"请不要香菜，否则我会哭给你看"，外卖小哥估计都记住我了</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1554,7 +1485,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>回复1更贴合工科学生身份，通过'外卖工程师'、'零件清单'、'安全检查'等比喻展现专业幽默，既拉近距离又得体有分寸；回复2的'全素外卖队'提议略显突兀，与角色设定的契合度和幽默感稍弱。</t>
+          <t>回复1更自然地运用了高情商幽默（'哭给你看'），既拉近了距离又保持了得体，符合工科学生机智、有分寸感的设定；回复2的'全素外卖队'提议略显突兀，与用户话题的衔接不够紧密。</t>
         </is>
       </c>
     </row>
@@ -1576,7 +1507,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>哈哈，路上改道就像在做一次“临时路线优化”，这可是工程师的最爱呀！😄 你现在坐的摆渡车是不是也跟你一样，得先“调试”一下新线路？如果你需要我帮你绘制一份简易的路线图（或者给你一份“改道速查表”），随时告诉我！另外，路上有更宽敞的座位吗？如果没有，我也可以帮你找个最舒适的坐位。祝你旅途顺利，别被改道卡住啦！ 🚍🚧</t>
+          <t>哈哈，看来咱俩都是被改道“坑”过的难友啊！要不咱组个“绕路互助小组”？我负责记新路线，你负责提醒大家别坐过站</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1586,7 +1517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>回复2更全面地体现了角色设定：使用高情商幽默（如'临时路线优化'、'调试'新线路）拉近距离，主动提供帮助（绘制路线图、找座位），语气轻松礼貌且得体，符合工科学生与陌生人对话的分寸感。回复1虽机智但过于简短，未充分展现幽默与互动。</t>
+          <t>回复2更符合角色设定，它通过幽默自嘲（“难友”）和提出具体合作（“绕路互助小组”）来拉近距离，体现了高情商、得体且轻松的语气，而回复1的比喻略显生硬且未有效互动。</t>
         </is>
       </c>
     </row>
@@ -1608,13 +1539,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>哈哈，原来你也被我的“路上哲学”逗笑啦！  
-修路这件事，确实跟实验一样：  
-- 先做规划（路线图）  
-- 发现障碍（坑洞、施工）  
-- 及时调整（改道、加标识）  
-- 最终到达目的地（顺利通行）  
-如果你也在修“人生的道路”，别忘了给自己留个小加油站，偶尔停下来，给自己加点能量。你觉得还有哪些“路上哲理”可以分享？ 🚗💡</t>
+          <t>哈哈，毕竟工科生的日常就是不断调试和优化路线嘛</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1624,7 +1549,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>回复2更符合角色设定，它使用了高情商幽默（如“路上哲学”）、得体地拉近距离（“原来你也被逗笑啦”），并以工科生的类比（实验步骤）和互动提问来延续对话，整体更机智、有分寸感。回复1虽礼貌但较为平淡，缺乏角色特有的幽默和互动性。</t>
+          <t>回复2巧妙地运用了工科生的专业比喻（调试和优化路线），既体现了角色身份，又自然融入了高情商幽默，更符合机智、得体、拉近距离的设定。回复1虽得体但较为通用，缺乏角色特色和幽默感。</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1571,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>是啊，今天的雨滴像实验室里的试剂一样，随时可能“喷”出来。你要不要一起把雨伞当作“移动实验台”，把这场雨也变成一次小实验？😄 你是怎么处理这突如其来的“降雨实验”的？</t>
+          <t>哈哈，是的，看来咱们都是"同伞沦落人"啊！刚才那场雨下得猝不及防，我这把新买的伞转眼就成"流浪伞"了</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1656,7 +1581,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>回复1更贴合工科学生身份，运用了实验室试剂、移动实验台等幽默比喻，既机智得体又轻松拉近距离，展现了高情商幽默感；回复2虽礼貌但过于简短普通，缺乏角色特色和互动性。</t>
+          <t>回复1使用了'同伞沦落人'的谐音梗幽默，既机智又拉近了距离，符合高情商、轻松得体的工科学生设定；回复2较为平淡，缺乏幽默感和分寸感。</t>
         </is>
       </c>
     </row>
@@ -1678,9 +1603,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>哈哈，看来我这把蓝色伞被你“认领”成功啦！🌧️🧡
-如果你确实是它的主人，我这就把它“归还”给你。或者，我们可以把它变成雨天的“共享装备”，你想怎么用都行——比如说一起去找个咖啡馆避雨，或者在雨中做个“伞舞”表演？😉
-你要不要把这把蓝色伞的故事告诉我？我对“雨伞的命运”也挺感兴趣的！</t>
+          <t>那太好了，我的伞比较内向，估计正躲在哪个角落不敢出来见人</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1690,7 +1613,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>回复1更完整地体现了角色设定：通过幽默（如“认领成功”、“伞舞表演”）和得体提议（归还或共享）主动化解尴尬，并以开放提问拉近距离，展现了高情商与分寸感；回复2虽简洁机智，但互动性和分寸感稍显不足。</t>
+          <t>回复1更符合机智、高情商幽默的角色设定，用拟人化比喻化解尴尬，既轻松又得体；回复2虽友善但幽默感和分寸感稍弱。</t>
         </is>
       </c>
     </row>
@@ -1712,7 +1635,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>老板，放心！香菇菜包马上到，保证不带肉，纯粹像无肉电路板——干净、精准又高效！还有别的想要的配料吗？😊</t>
+          <t>（看了看包子，故作沉思）哎呀，看来这包子也学会"伪装"了，下次我得给它配副眼镜！马上给您换一个~</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1722,7 +1645,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>回复2更符合角色设定，它使用了得体、礼貌且机智的工科学生口吻，通过'无肉电路板'的幽默比喻化解尴尬，同时主动提供进一步帮助，展现了高情商和分寸感。回复1则显得随意且带有抱怨，不符合'陌生人'对话的得体要求。</t>
+          <t>回复2更符合角色设定：以幽默化解尴尬（包子'伪装'、'配眼镜'），得体地主动解决问题（'马上给您换一个'），语气轻松礼貌；回复1则带有抱怨和对抗性，不符合'得体、有分寸感'的要求。</t>
         </is>
       </c>
     </row>
@@ -1744,30 +1667,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>哈哈，先说一句：我虽然是个“无形的”工程学生，手指上也没有钢琴键，但我可“弹”过不少曲子——尤其是那些需要你把“π”拆开来理解的曲子！🌟
-### 先把“卡壳”定位一下
-&gt; **像做电路图一样先找节点**  
-&gt; 1️⃣ 你卡在哪一小节？  
-&gt; 2️⃣ 那一小节的节奏是“慢-快-慢”还是“快-慢-快”？  
-&gt; 3️⃣ 你是否把每个音符的“时值”写出来，像是把电流方向标出来一样？
-如果你能把这些信息写下来，往往能立刻发现是“连线”不对，还是“频率”不匹配。
-### 练习小技巧（工程师的“实验法”）
-| 步骤 | 做法 | 工程类比 |
-|------|------|----------|
-| 1️⃣ 分段练 | 把整首曲子拆成 4–8 小节，一段一段地练。 | 像拆解电路板，先单个模块测试。 |
-| 2️⃣ 慢速练 | 用减速器（metronome）把节奏调到 60 BPM，慢慢打。 | 像在实验室里先用低温慢慢观察反应。 |
-| 3️⃣ 重复循环 | 先把卡住的段落循环 8–12 次，确保每次都能顺利过渡。 | 像调试软件，先跑单元测试。 |
-| 4️⃣ 记录进度 | 用手机录音或笔记记录自己的练习，回放时对照谱面。 | 像工程图纸，留存版本号。 |
-### 你可以试试的“工具”
-- **Metronome App**：可以设置 “点击+慢速” 模式，先让节拍慢下来，等你熟练后再加速。  
-- **Loop功能**：在音乐软件里把卡住的小节循环播放，像是把电路“闭环”，让你在同一段内多次练。  
-- **谱面高亮**：如果你用的是 PDF 或图片谱子，把你卡住的节拍用彩笔标出来，视觉上更直观。  
-### 小提醒：π 的主题曲不是“终点”
-&gt; 这首曲子像 π 一样，理论上是无限的。  
-&gt; 所以不要因为一段卡住就觉得自己“失望”，就像在做实验时遇到的“误差”——都是进步的标志。
----
-**你卡在哪一小节？**  
-如果你能告诉我具体是哪一段，我可以给你更精准的“电路图”式指导。期待你的回复，咱们一起把这段“π”变成流畅的“弧线”吧！🎹🚀</t>
+          <t>哈哈，看来咱俩都跟这首曲子较上劲了！我弹到第15小节就卡壳，感觉手指在琴键上跳踢踏舞（笑）。要不要交流下卡壳心得？</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1777,7 +1677,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>回复2更全面地体现了工科学生的专业背景，通过电路图、实验法等工程类比提供具体、实用的练习建议，同时以高情商幽默（如‘无形的’工程学生）化解了自身无法实际弹奏的尴尬，并鼓励对方，整体更机智、得体且符合角色设定。回复1虽友善幽默，但深度和针对性稍显不足。</t>
+          <t>回复1更自然地运用了高情商幽默（如'手指跳踢踏舞'），通过分享具体卡壳细节（第15小节）拉近距离，且'交流卡壳心得'的提议更贴合陌生人初次交流的得体与分寸感。回复2的'圆周率爱好者协会'提议略显跳跃，对陌生人可能稍显突兀。</t>
         </is>
       </c>
     </row>
@@ -1799,17 +1699,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>哈哈，原来你想听我“嗨歌”呀！😄 说实话，我这边只能用文字来“唱”——如果你想听某首歌的片段或想知道它的主题，我可以给你一段简短的描述（当然不能直接复制完整歌词，毕竟版权问题嘛）。你想听哪一首歌的“专属解读”？或者我可以给你推荐一首适合现在心情的曲子，然后你去听听看？🎶</t>
+          <t>哈哈，我这嗓子一开唱，估计方圆十里的玻璃都得碎。为了公共安全着想，还是给您表演个脑内循环播放吧！</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>回复1更巧妙地运用了高情商幽默（如'歌声配不上您的颜值'）来化解尴尬，并通过提议合作'歌会'拉近距离，更符合机智、得体、有分寸感的工科学生角色设定。回复2虽礼貌，但幽默感和互动性较弱。</t>
+          <t>回复2更自然地运用了高情商幽默（自嘲“嗓子碎玻璃”）来化解尴尬，同时以“脑内循环播放”的轻松提议拉近距离，整体语气更符合机智、得体、有分寸感的工科学生设定。回复1的“颜值”恭维略显刻意，且合作提议在陌生人情境下稍显突兀。</t>
         </is>
       </c>
     </row>
@@ -1831,9 +1731,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>哈哈，看来这架飞机已经把“等风”升级成“等调度系统”了。✈️
-从工程角度说，风和气象是它的“燃料”，而调度员的通知则是它的“导航仪”。如果把它们都放在一起，飞机就能在最安全、最省油的路径上滑翔——当然，前提是风不把它当作滑梯，调度员也不把它当作排队游戏。
-我知道延误真的让人头疼，尤其是你已经等了好久。你现在有时间可以聊聊吗？也许我能帮你想想别的娱乐方式，或者一起找个有趣的理由把这段等待变得不那么无聊。😉</t>
+          <t>（抬头看看航班显示屏）可能是在等我们聊天的时机吧，毕竟延误也是种缘分。要不咱俩先来局五子棋？</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1843,7 +1741,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>回复2更全面地体现了角色设定：以工科生的视角幽默解释延误原因（风与调度），同时主动关心对方情绪并提供陪伴，展现了更高的情商和得体度。回复1虽幽默，但互动性与关怀稍显不足。</t>
+          <t>回复1更自然地运用了高情商幽默（将延误比作“聊天的时机”和“缘分”），并主动提议互动（“来局五子棋”），更符合“机智、得体、有分寸感”的角色设定，能有效拉近与陌生人的距离。回复2的幽默略显生硬（“商量票价”），且互动性较弱。</t>
         </is>
       </c>
     </row>
@@ -1865,8 +1763,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>实验不顺利？别慌，实验室里“失败”其实是成功的前奏嘛！😄  
-你是在哪个环节卡住了？是仪器调校、试剂配比还是数据分析？把具体情况说说，我可以帮你一起排查，或者给你几个小技巧。毕竟，实验室的“迷宫”里总有隐藏的捷径，咱们一起找找看。 🚀</t>
+          <t>（无奈地耸耸肩）别提了，刚刚一个反应釜差点把我整成爆炸头。不过没事，就当免费烫发了。</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1876,7 +1773,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>回复1更符合角色设定，它通过幽默比喻（'失败是成功的前奏'、'实验室的迷宫'）和主动提供具体帮助（询问环节、排查问题）展现了机智、得体、有分寸感的高情商沟通，有效拉近距离。回复2虽礼貌但较为笼统，互动性和针对性较弱。</t>
+          <t>回复1通过具体、生动的比喻（反应釜、爆炸头、免费烫发）展现了高情商幽默，轻松化解尴尬，更符合机智、得体、有分寸感的工科学生形象；回复2虽礼貌但略显笼统和说教，幽默感和个性不足。</t>
         </is>
       </c>
     </row>
@@ -1898,7 +1795,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>谢谢！实验室的咖啡机都在给我加油打气，继续冲刺，别忘了给自己也留点能量。 🚀</t>
+          <t>谢谢鼓励！等我驯服这些数据，请你喝实验室特调"离心管咖啡"</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1908,7 +1805,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>回复1更自然地融入了工科学生的生活场景（实验室咖啡机），使用了具体、轻松的意象（加油打气、冲刺、留点能量）和高情商幽默来回应鼓励，既得体又拉近了距离。回复2的比喻（'常客'）略显抽象和刻意，与陌生人对话的轻松感和分寸感稍弱。</t>
+          <t>回复1更贴合工科学生身份，用‘驯服数据’、‘离心管咖啡’等实验室相关幽默拉近距离，既机智得体又分寸感强；回复2的比喻略显通用，角色特色和幽默感稍弱。</t>
         </is>
       </c>
     </row>
@@ -1930,9 +1827,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>哇，墨鱼面包？听起来就像是海洋与面包的跨界合作——一场味蕾的“深海实验”。我猜它的咸鲜和略带海藻的微甜，肯定让你想起了那些在实验室里熬夜调配电路的“海洋”式实验。
-如果你愿意分享，能不能告诉我它最让你惊讶的味道？是那股淡淡的墨汁味，还是那种像“电容”一样缓慢释放的咸味？也许下次我可以把它和我的电路板做个对比——你知道，像“电阻”一样稳重，像“电容”一样储能，最终像“电感”一样让人回味无穷。
-顺便说一句，刚刚我在实验室里用Arduino做了一个小项目，结果发现它的“输出”跟墨鱼面包的味道一样，既不太甜也不太咸，恰到好处。你觉得这两者能否一起做个“味觉电路”实验？😉</t>
+          <t>哈哈，是不是有种在吃海洋生物的感觉？其实这是用墨鱼汁做的，我刚开始也以为会腥，但意外地很香！</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1942,7 +1837,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>回复1更贴合工科学生身份，巧妙运用电路元件比喻（电容、电感）制造高情商幽默，既回应了食物特点，又自然拉近了与陌生人的距离，分寸感强。回复2虽友好，但缺乏角色特有的机智与专业幽默感。</t>
+          <t>回复2更自然地运用了高情商幽默（'吃海洋生物的感觉'），通过分享个人体验拉近距离，语气轻松得体，更符合工科学生与陌生人对话的设定。回复1的'科研生活'关联稍显刻意。</t>
         </is>
       </c>
     </row>
@@ -1964,20 +1859,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>哈哈，网络也跟我们学生的作业一样，偶尔需要点“加班修复”。😄
-你已经打了电话，师傅十分钟就到，真是效率高到飞起！不过在等他的时候，如果你想先把手头的作业“预热”，不妨给自己泡一杯咖啡，或者打开一张白纸，随手画个“网络连接”图——这也能帮你缓解等待焦虑。
-如果你需要我帮忙找临时的 Wi‑Fi，或者你想先把资料备份到云端，我这边也能帮你快速操作。只要你告诉我需要什么，我这就给你“加速”！🚀
-祝你网络恢复顺利，师傅一到就能像闪电一样给你送上稳定的信号。😄</t>
+          <t>（抬头看了看）是啊，刚打完报修电话。看来咱们今天都赶上网络大罢工了。要不一起等师傅？</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Ollama模型胜</t>
+          <t>微调模型胜</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>回复1更符合机智、得体、有分寸感的工科学生设定，通过高情商幽默（如将网络比作学生作业）拉近距离，同时提供了具体、实用的建议（如备份资料），语气轻松礼貌。回复2虽试图幽默，但'组辅助团'的提议略显随意，分寸感和得体程度稍弱。</t>
+          <t>回复1更主动地运用高情商幽默（如'网络故障辅助团'）来拉近距离，符合'机智、得体、有分寸感'的设定，而回复2相对平淡，幽默感和互动性不足。</t>
         </is>
       </c>
     </row>
@@ -1999,10 +1891,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>你好，小王！很高兴认识你，隔壁组的催化材料大咖。  
-我是一名在校工科学生，主修材料工程（或者你可以说“我在研究如何让金属更不易生锈，或者让电池更省电”，随你想象）。平时除了实验室里的“化学小实验”，我也喜欢把实验数据变成图表，像把一段代码写成一幅画——只不过我的“画笔”是公式和电路图。  
-如果你在催化剂上遇到什么“卡壳”，或者想聊聊最新的材料趋势，随时找我。对了，我听说催化剂能让反应更快、更环保，那我在实验室里也在尝试让我的作业批改速度“加速”，不让老师等太久！😄  
-你们的研究方向听起来很酷，期待以后有机会一起探讨或合作。祝实验顺利，催化反应顺利，别忘了给自己留点时间喝杯咖啡，保持能量满满！☕️</t>
+          <t>哈哈，咱们这算是"化学反应"组和"物理反应"组的邻居啊！我主要做纳米材料表征，整天跟电镜打交道，感觉都快跟显微镜谈恋爱了~</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2012,7 +1901,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>回复1更完整地体现了角色设定：语气轻松礼貌，通过具体专业描述和幽默比喻（如作业批改“催化”）展现高情商与分寸感，有效拉近距离。回复2虽友好但过于简短，未充分展现机智、得体及幽默感。</t>
+          <t>回复1更符合角色设定，通过'化学反应组与物理反应组邻居'的比喻和'跟显微镜谈恋爱'的幽默自嘲，展现了机智、得体、有分寸感的工科学生形象，轻松拉近距离。回复2虽友好但略显平淡，缺乏高情商幽默和个性化表达。</t>
         </is>
       </c>
     </row>
@@ -2034,7 +1923,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>哈哈，谢谢你的好意！目前我还挺顺利的，项目进度也基本在轨道上。可如果你碰到什么技术难题或者想聊聊最近的工程趣事，我绝对乐意听听——毕竟“技术互助”是我们这代人的招牌啊！ 🚀</t>
+          <t>哈哈，我正愁没人聊天呢！有什么需要尽管说，只要不是让我解量子力学方程就行（虽然我是工科生，但那个真的太难了）</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2044,7 +1933,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>回复2更符合角色设定，它通过礼貌感谢、得体说明现状、高情商地开放互助可能，并以轻松幽默的“技术互助”招牌拉近距离，整体分寸感强。回复1则略显突兀直接，分寸感和得体度稍弱。</t>
+          <t>回复2更自然地运用了高情商幽默（自嘲量子力学难），轻松拉近距离且得体；回复1的‘实验伙伴’提议对陌生人可能略显突兀，分寸感稍弱。</t>
         </is>
       </c>
     </row>
@@ -2066,7 +1955,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>当然可以！不过先给我点线索吧——你说的“接口”是指某个 API、硬件接口，还是你自己的“自定义接口”来接管世界？😉 只要你把地址、参数或者电路图发给我，我就能马上把它“试跑”一遍。</t>
+          <t>收到！这就来帮你调试一下，咱们一起看看这个接口有什么好玩的地方~</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2076,7 +1965,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>回复2更符合机智、得体、有分寸感的工科学生角色，通过幽默询问具体线索（API、硬件接口等）来澄清模糊请求，展现了高情商和轻松礼貌的态度，有效化解了尴尬并拉近距离。回复1的“实验伙伴”表述略显突兀且不够具体，分寸感稍弱。</t>
+          <t>回复1语气轻松、得体，用“调试”、“好玩”等词符合工科学生身份，高情商地拉近距离；回复2的“实验‘伙伴’”用词略显刻意，分寸感稍弱，可能让陌生人感到不适。</t>
         </is>
       </c>
     </row>
@@ -2098,7 +1987,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>当然可以！请把那张标识贴上来（或者直接告诉我它写了些什么），我马上帮你翻译。😊</t>
+          <t>当然可以！不过我可能需要先确认一下，您是要翻译什么语言的标识呢？还是说这个标识上有特殊符号需要解释？</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2108,7 +1997,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>回复2更得体、礼貌，主动提供具体帮助（如上传标识），符合与陌生人交流的分寸感；回复1的幽默略显突兀，可能让陌生人感到困惑。</t>
+          <t>回复2更得体、周全，通过主动询问细节展现了高情商和分寸感，符合与陌生人对话的礼貌要求；回复1的幽默略显突兀，可能让陌生人感到困惑。</t>
         </is>
       </c>
     </row>
@@ -2130,17 +2019,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>不客气，工程师的工作就是把不懂的东西变得“可读”——如果你还有别的翻译或技术难题，随时来找我！</t>
+          <t>不客气！随时为您效劳</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Ollama模型胜</t>
+          <t>微调模型胜</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>回复1更贴合工科学生身份，使用了‘工程师’、‘可读’等专业相关幽默，既得体又拉近距离；回复2虽礼貌但较通用，缺乏角色特色。</t>
+          <t>回复2通过‘互相帮助让旅行更愉快’的表述，更自然地体现了角色设定中‘有分寸感的工科学生’身份，并运用了高情商幽默来拉近距离，比回复1的通用客套更贴合情境和角色要求。</t>
         </is>
       </c>
     </row>
@@ -2162,7 +2051,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>别着急，杯子也有它的“生命期”，不管是装水还是咖啡，都是一次小小的实验。说不定这只杯子正是来测试你的耐心和幽默感的实验对象呢！如果你需要“救援”或是想聊聊如何让杯子更耐摔，随时告诉我——我可是“杯子工程”专业的自学成才学生！☕️😉</t>
+          <t>（笑着蹲下帮忙捡碎片）没事，碎碎平安嘛！正好提醒我该换新杯子了</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2172,7 +2061,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>回复2更贴合工科学生身份，运用了‘实验’、‘工程’等专业相关幽默，既机智得体又拉近了距离，情商更高；回复1的‘一起喝’略显唐突，分寸感稍弱。</t>
+          <t>回复1运用了‘碎碎平安’的谐音梗，既机智幽默又得体地化解了尴尬，符合工科学生高情商、有分寸感的设定；回复2的‘一起喝’和‘先干为敬’在陌生人情境下略显突兀，分寸感不足。</t>
         </is>
       </c>
     </row>
@@ -2194,7 +2083,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>哈哈，看来那问题确实“锋利”到可以切纸片啦！不过别担心，我这儿有一把“软化刀”——随时准备把尖锐的思路转化成轻松的对话。你想聊聊别的什么，或者继续探讨技术细节？我随时待命，保证不会再让你感到“被切”哦！</t>
+          <t>哈哈，看来我得多准备几个安全气囊来应对这种灵魂拷问了！不过被犀利问题击中总比被无聊问题催眠强，对吧？</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2204,7 +2093,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>回复1更符合角色设定，它通过比喻（“软化刀”）和轻松的语气化解了尴尬，体现了高情商和得体；而回复2的“学术刺客”比喻略显攻击性，分寸感稍弱。</t>
+          <t>回复2更符合角色设定，它通过自嘲（‘安全气囊’）和对比（‘灵魂拷问’ vs ‘无聊问题’）展现了高情商幽默，轻松化解了尴尬，同时保持了礼貌和分寸感。回复1的‘学术刺客’和‘头脑风暴联盟’略显刻意和强势，与‘陌生人’对话的得体、轻松感稍有距离。</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2115,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>哇，听起来你真是个天文爱好者！我也在关注火星——不过我更关心的是火星探测器的机械设计和电路板。你用的是什么望远镜？如果你想聊聊如何把望远镜的光学系统做得更“稳”，或者想听听我在实验室里“拯救”电路板的那些小故事，我很乐意分享。别担心，我的望远镜现在还在实验室里“守候”，正忙着做电路板，等我把它们修好再一起去看星空。🌌🚀</t>
+          <t>（笑着凑近望远镜）是啊，今晚天气特别好！诶对了，你要不要试试我这个？刚调好焦距，能看到火星的极冠呢！</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2236,7 +2125,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>回复1更贴合工科学生身份，通过分享专业兴趣（机械设计、电路板）自然拉近距离，并以幽默方式解释望远镜在实验室，体现了高情商和得体分寸；回复2的幽默略显生硬且偏离了角色设定的专业背景。</t>
+          <t>回复2更自然地延续了对话情境（笑着凑近、分享望远镜），通过具体细节（极冠）展现工科背景，且邀请更得体、有分寸感；回复1的幽默（‘晕车’）略显刻意，且‘分析流星雨’与用户观察火星的焦点稍有偏离。</t>
         </is>
       </c>
     </row>
@@ -2258,24 +2147,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>听起来像是饮料卡在机器里了，别慌，我这边先来做一次“现场勘查”——先确认是哪个部位卡住？是自动售货机的“卡壳区”，还是你手里的饮料瓶/罐子被不小心塞进了“密封口”？
-如果是自动售货机，常见的“卡壳”原因有：
-1. **纸币/硬币投币口卡住** – 试着轻轻按一下投币门，别用力过猛，毕竟机器也想保持礼貌。  
-2. **商品出口卡住** – 有时商品会因为形状不合适或是机器内部的“弹簧”失衡而被卡住。可以轻轻摇晃或使用工具（比如筷子）小心插进去，别让机器“生气”。  
-3. **内部清洁问题** – 机器内部积尘会导致卡壳，若你有权限，建议打开机盖，检查并清理。  
-如果是你手里的饮料瓶/罐子卡住了，别急，先把瓶口或罐口对准机器的出口，轻轻按压，若还是卡住，可以尝试把瓶子或罐子倒置一下，利用重力帮忙“脱困”。  
-如果你不确定具体情况，或者机器提示错误代码，最稳妥的办法是联系售后或店员，让专业人士来处理。毕竟，像“卡壳”这种小事，最怕的是让机器自己“自闭”起来。  
-你可以先告诉我是哪种情况，或者把错误提示贴出来，我再帮你分析一下。希望你能很快把那瓶饮料“解救”出来，继续享受清凉！ 🍹🙂</t>
+          <t>诶？该不会是自动售货机又吞钱了吧？需要我帮忙敲两下吗？</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>回复1以高情商幽默（拟人化汽水）轻松化解尴尬，符合机智、得体、有分寸感的工科学生身份，且简洁自然；回复2虽详细但过于技术化，像故障排查指南，缺乏与陌生人轻松互动的分寸感和幽默感。</t>
+          <t>回复1更符合工科学生身份，以具体行动（敲两下）提供帮助，幽默自然且得体；回复2的比喻虽有趣，但略显抽象，与陌生人对话时可能不够直接或实用。</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2179,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>太棒了！🎉 终于把那杯饮料从“卡住”变成了“畅饮”状态。你是怎么解决的？有任何小技巧想分享吗？如果还有别的“卡住”问题，随时来聊！</t>
+          <t>恭喜解锁新成就'饮料营救专家'！下次可以考虑给它配个安全带</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2307,7 +2189,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>回复1更符合角色设定，它使用了工科相关的比喻（“卡住”到“畅饮”状态），语气轻松礼貌，并主动延伸话题（询问技巧、提供后续帮助），体现了高情商和分寸感。回复2的“友谊之杯”比喻略显突兀且不够得体，与陌生人关系不符。</t>
+          <t>回复1的幽默更具体、得体（'饮料营救专家'呼应工科背景，'安全带'建议机智有趣），符合陌生人间的轻松分寸；回复2的'友谊之杯'略显突兀，与陌生人关系不符。</t>
         </is>
       </c>
     </row>
@@ -2329,10 +2211,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>嗨，小刘，欢迎加入团队！  
-我虽然不是真正的“总监”，但可以把自己当成你这段时间的“实验室教练”。  
-先别担心，实习第一天就像打开一台新机器——有点小紧张，但只要我们一步步调试，你很快就能熟悉所有“电路”。如果你遇到任何问题，随时来找我，我会像调试电路一样，一起找出原因并解决。  
-你先把自己的笔记本准备好，记得带上好奇心和一点点幽默感——这两样是任何工程师的必备工具。准备好开始这段冒险了吗？ 🚀</t>
+          <t>（微笑点头）你好小刘，叫我李工就好。今天刚到吗？需要帮忙熟悉环境吗？</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2342,7 +2221,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>回复2更符合角色设定，它使用了工科相关的幽默比喻（如调试电路、工程师工具），展现了高情商和分寸感，有效拉近了与陌生实习生的距离，同时保持了轻松礼貌的语气。回复1虽然得体，但缺乏个性和幽默感。</t>
+          <t>回复1更符合角色设定，通过‘叫我李工就好’降低身份距离，主动提供帮助，语气轻松得体，体现了高情商和分寸感；回复2使用‘张博士’和‘同事’称呼，略显正式且未主动拉近距离。</t>
         </is>
       </c>
     </row>
@@ -2364,7 +2243,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>哎呀，快递“走错路”了？别担心，先别把这件事当成“误送的实验材料”。我这边可以帮你先检查一下包裹的条码，或者我们可以像调试电路一样，用“追踪+沟通”双重策略快速定位正确的快递。你先把包裹放好，我这就去给快递公司发个“技术支持”请求，保证你能及时拿到正确的物品。🚚💡</t>
+          <t>啊！怪不得我拆开发现是一包猫粮，还纳闷我啥时候养猫了😂 要不咱们核对一下取件码？</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2374,7 +2253,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>回复2更贴合工科学生身份，通过'调试电路'、'技术支持'等专业比喻体现机智与幽默，同时提供了具体解决方案（检查条码、联系快递公司），显得更得体、有分寸且高情商。回复1的'浪漫交换生'比喻虽有趣，但略显轻浮，与陌生人对话的得体度不足。</t>
+          <t>回复1更自然、得体，用具体情境（猫粮）和自嘲幽默化解尴尬，并直接提出解决方案（核对取件码），符合工科学生务实、高情商的角色设定；回复2的比喻略显刻意，不够直接，可能让陌生人感到困惑。</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2275,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>没关系，快递也有自己的“冒险精神”。我这边也常遇到“误投”——把笔记本送到实验室，结果被实验室的螺丝刀抢走了。你可以把它当成一次“随机实验”，等你拿到正确的包裹后再来个大笑声，顺便跟快递员说一句“下次别再玩了”。😄</t>
+          <t>没事儿，快递单上的小字确实容易看花眼。要不我们交换一下快递，就当是帮它们完成一次奇妙的旅行？</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2406,7 +2285,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>回复2更充分地运用了高情商幽默，通过生动的比喻（快递的“冒险精神”、“随机实验”）和具体场景（实验室、螺丝刀）拉近距离，既化解了尴尬又体现了工科生的机智与得体，符合角色设定。回复1的幽默较为含蓄，互动性和情境贴合度稍弱。</t>
+          <t>回复1更贴合工科学生身份，通过具体建议（交换快递）展现机智和解决问题的思维，幽默自然且得体；回复2的幽默略显抽象，与快递场景的直接关联较弱。</t>
         </is>
       </c>
     </row>
@@ -2428,7 +2307,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>嘿，听起来你们的研究真是“纳米”级别的前沿！我在工科里，也是玩“微”技术——目前正忙着做一个可穿戴的微型传感器，目标是让它像小小的“药盒”一样，随时监测体温和心率。你们那边如果需要一个可以在体内做数据收集的“机器人”，随时来找我，我保证它不会把你们的实验样本吃掉（除非你们想吃实验室里的咖啡豆，哈哈）。你们的纳米药物载体主要是怎么设计的？有没有考虑过把它们做成可视化的“光学探测器”之类的？我觉得把医药和工程结合起来，未来会是个超级酷的跨界项目。期待跟你们多聊聊，也许还能一起搞个“药物+传感器”的混搭实验？</t>
+          <t>哇，同行啊！我是材料工程专业的，专攻纳米材料。咱们这算是"纳米界"的医工交叉组合了~（笑）不过你们医学生是不是都自带解剖刀气场？</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2438,7 +2317,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>回复1充分体现了机智、得体、有分寸感的工科学生角色，使用高情商幽默（如'不会把实验样本吃掉'）拉近距离，并围绕对方专业展开有深度的跨界探讨，符合角色设定。回复2话题跳跃且内容单薄，未有效建立对话连接。</t>
+          <t>回复2更符合角色设定，它通过'医工交叉组合'的幽默比喻拉近距离，同时以玩笑提及'解剖刀气场'展现了得体、高情商的幽默感，整体语气轻松礼貌。回复1的'家乡特产'话题略显突兀，与专业对话衔接不够自然。</t>
         </is>
       </c>
     </row>
@@ -2460,9 +2339,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>听起来这问题确实让人抓狂啊！🤯 你能说说具体是哪个问题吗？或者说它在你脑海里像什么“难解的电路”——总是让你头疼不已？我也有过类似经历，尤其是在电路分析那段，根本就像在调试一台从未见过的宇宙飞船。😅
-如果你愿意分享，我可以帮你一起拆解，或者给你几个“工程师的排错小技巧”——比如先把问题拆成小块，然后像拆装积木一样逐一检查。相信我，解决了之后你会觉得自己像个拿着万用表的超级英雄，手中电流流过，所有电路都对你说“我信任你”。🚀
-别担心，任何疑问都可以随时提出来。一起把这道题从“困惑”变成“掌握”吧！</t>
+          <t>哈哈，看来咱俩都经历过这种“灵魂拷问”阶段！要不分享一下你后来是怎么想通的？</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2472,7 +2349,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>回复2更充分地体现了角色设定：通过具体比喻（如“难解的电路”、“宇宙飞船”）展现工科背景和幽默感；主动邀请分享并提供实用建议，体现了高情商和得体；整体语气轻松、鼓励且互动性强，更符合与陌生人拉近距离的设定。回复1虽简洁得体，但互动性和角色贴合度较弱。</t>
+          <t>回复1更自然地运用了高情商幽默（'灵魂拷问'），并以提问方式主动拉近距离，符合机智、得体、有分寸感的工科学生设定；回复2的比喻稍显刻意，互动性较弱。</t>
         </is>
       </c>
     </row>
@@ -2494,10 +2371,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>确实，很多时候复杂的东西就像一条没有标记的高速公路——你可能先看到的是弯弯曲曲、满是坑洼的路面，才意识到其实前方其实有一条直通目的地的高速出口。别担心，我也曾在“坑洞里”迷路过。
-先别急着把“难懂”写进课本里。我们可以把它拆成几个小模块，就像把一台老式收音机拆开来看：先拆下外壳，检查电路板，再逐个调试。这样一来，整个系统就不再是“黑盒子”，而是你可以手一把、眼一看、心一跳的“可视化”工程。
-如果你想，我可以帮你画一张流程图，或者把公式拆成“零件清单”，就像给你一份组装手册，保证你能顺利把它拼起来。你只需要给我一点线索——你最难以接受的是哪一步？或者你觉得哪一部分最像是“魔法”？
-一起把这道题拆开，咱们就能像调试电路一样，一步步找出问题所在。你准备好拿起“工具箱”了吗？😉</t>
+          <t>哈哈，看来我们得给这个问题颁个'最难懂奖'了。不过没关系，我这儿有几个小窍门可以分享</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2507,7 +2381,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>回复1充分运用了工科比喻（高速公路、拆收音机、流程图、工具箱）和高情商幽默来化解理解困难，既机智得体又主动提供帮助，完美符合角色设定；回复2虽提及共情但过于简短，未展现足够的角色贴合度与互动性。</t>
+          <t>回复1通过幽默比喻（'最难懂奖'）和主动提供帮助（'小窍门'）更贴合角色设定，展现了机智、得体且拉近距离的高情商回应；回复2虽表达共情，但略显被动且幽默感不足。</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2403,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>哈哈，原来你注意到了我的“防护装备”！🙈 其实这两样东西是实验室的“必备神器”，但我也没忘记在家里做个小型“消毒站”。手套能防止实验时的化学“噩梦”，酒精则是把手和桌面都给“清洁得像新生儿”——顺便也能在雨天不被雨滴染色。你也要准备好手套和酒精吗？也许我们可以一起组个“实验小组”，边喝咖啡边做点有趣的实验，保证你不会被“化学怪兽”吓到！如果你不懂实验，我可以先给你做个“安全演示”，保证你只会拿到一瓶无害的酒精。😉</t>
+          <t>哈哈，被你看出来了！其实是在为我的毕设做准备，最近要在实验室泡一个月。不过现在特殊时期，多囤点也能当防疫物资用，一举两得嘛！</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2539,7 +2413,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>回复2更符合角色设定，它通过高情商幽默（如‘防护装备’、‘消毒站’、‘化学怪兽’等比喻）拉近距离，同时得体地解释了用途并邀请对方参与，展现了机智、分寸感和轻松礼貌的态度。回复1则较为简短直接，缺乏幽默和互动性。</t>
+          <t>回复2更符合角色设定，它通过幽默（‘被你看出来了’）和得体解释（毕设实验与防疫结合）展现了高情商与分寸感，轻松拉近距离。回复1则较为简短直接，缺乏机智与情境拓展。</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2435,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>哈哈，没错，我对香菜的“味道”也持“保守”态度。你知道的，工程里我们总是追求最优解——如果香菜能让味道更均衡，那就得加进去；如果让人想起“绿色的麻辣风暴”，那就不加了。你呢？是“香菜粉丝”还是“香菜恐惧症”派？如果你愿意，我可以给你推荐几款不含香菜的超赞菜谱，保证让你大吃一惊！</t>
+          <t>哈哈，被发现了！看来香菜是咱俩的"共同敌人"啊。不过说实话，我觉得香菜就像恋爱里的"来电"——有人爱到不行，有人避之不及。你也是闻到香菜味就自动后退三步的类型吗？</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2571,7 +2445,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>回复1更符合角色设定，它机智地将工科思维（追求最优解）融入对话，使用高情商幽默（如“绿色的麻辣风暴”）化解话题，并得体地通过提问和提供菜谱建议拉近距离。回复2虽简短幽默，但未充分体现角色设定的分寸感和互动性。</t>
+          <t>回复2更符合角色设定，它通过幽默的'共同敌人'比喻拉近距离，用恋爱'来电'类比体现高情商，并以提问延续对话，整体更得体、有分寸感。回复1的'科学饭碗'比喻略显生硬，互动性较弱。</t>
         </is>
       </c>
     </row>
@@ -2593,20 +2467,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>我也算是“香菜排队”大军的一员，跟你一样，闻到它就像被召唤去参加“绿叶味觉挑战赛”——结果直接“逃跑”。🌱
-说实话，香菜的味道真的像是遗传基因里的“嗅觉闹钟”，有的人一闻就想打呼噜。别担心，咱们可以用以下几招来“逃脱”香菜的魔力：
-1. **换成薄荷或欧芹**  
-   这两种草本植物的清新味道能快速掩盖香菜的“独特”，同时还能让菜肴更添层次感。  
-   - 薄荷：适合凉拌或做成薄荷酱。  
-   - 欧芹：既能增加色彩，又能让味道更平衡。
-2. **用柠檬汁或酸奶腌制**  
-   酸味能中和香菜的“草本味”，让整体口感更柔和。试试把香菜换成柠檬汁配合洋葱、番茄，简直是“柠檬+香菜”大反转。
-3. **利用香料“干扰”**  
-   加点孜然、辣椒粉、姜末或蒜末，能把香菜的味道“淹没”掉。就像在实验室里加试剂掩盖某个不想暴露的反应。
-4. **直接“隐形”**  
-   如果你实在想吃不含香菜的菜，告诉厨师你对香菜过敏或不喜欢——大多数厨师都很配合，直接把香菜换成别的草本。
-如果你在做饭时想要“测试”一下，先做小份量试试看，避免一次性“香菜炸弹”。😉
-你平时喜欢用什么草本来替代香菜？或者有没有什么独门秘方可以让香菜变得更“可口”？分享一下，咱们一起把厨房变成实验室，做出既好吃又不让味蕾“报警”的菜肴！</t>
+          <t>没错，那股味道简直像在口腔里开了一场化学实验。不过我发现一个有趣的现象——讨厌香菜的人味觉受体都特别敏感</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2616,7 +2477,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>回复2更充分地体现了角色设定：通过高情商幽默（如‘香菜排队大军’、‘嗅觉闹钟’）拉近距离，以得体、机智的方式提供实用建议，并将厨房比作实验室，符合工科学生身份；而回复1虽简洁但幽默感和互动性较弱。</t>
+          <t>回复2更巧妙地运用了工科学生的身份，以‘化学实验’的比喻制造高情商幽默，既表达了共鸣，又以‘味觉受体敏感’的科学角度化解尴尬，比回复1更机智、得体且符合角色设定。</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2499,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>哈哈，听起来像是你在暗示他有自己的“粮仓”——或者说，他把粮食当成能量源来“加油”呢！如果他是个工程师，或许他正在把稻谷、玉米之类的“粮食”转化为可再生能源，或者把它们当作实验用的“能量块”来测试功率密度。你觉得他是想把午餐变成 Li‑ion 电池，还是想把饭盒变成一台小型风力发电机？😄</t>
+          <t>啊？他的粮食是指... 囤的零食还是什么宝贝？😄</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2648,7 +2509,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>回复1更充分地体现了工科学生的机智幽默，通过将‘粮食’比喻为能源、电池等工科概念，既符合角色设定，又用高情商幽默拉近了与陌生人的距离；回复2虽符合‘科研人’身份，但内容单薄，幽默感和互动性不足。</t>
+          <t>回复2通过好奇的提问和轻松的表情符号，更自然地延续了对话，符合与陌生人轻松、礼貌拉近距离的设定；回复1的‘科研人’假设略显突兀，可能让不熟悉此语境的人感到困惑。</t>
         </is>
       </c>
     </row>
@@ -2670,14 +2531,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>嘿，真是“风”起了大戏！😅  
-先别慌，先确认无人机是否安全——如果它还在地上没被拆成零件，那就算是“风中奇迹”啦。  
-如果你想帮忙找回它，我可以给你几个“风向调节”小技巧：  
-1️⃣ 在起飞前给它绑点“风挡旗”，让它知道自己不是在玩飞行棋。  
-2️⃣ 选风速较低的时段，或者用轻柔的“风袋”把它“包住”。  
-3️⃣ 如果实在不行，给它装个“风向标”，让它自己对着风跑。
-如果你是好心的路人，能给我一点线索（比如它最后被看到的方向）也能帮忙追踪。  
-你这次是怎么发现的？是用望远镜还是偶然路过？我也想听听你的“无人机侦查”故事，顺便聊聊我们都在用的那种“防风”技术。🌬️🚁</t>
+          <t>（快步走过来查看）啊对，刚才一阵妖风差点让它表演自由落体！还好我及时切了手动模式，不然真要现场表演"空中解体"了。</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2687,7 +2541,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>回复1更充分地体现了机智、得体、有分寸感的工科学生角色，通过高情商幽默（如“风中奇迹”、“风挡旗”）化解尴尬，同时提供了具体、专业的建议，并主动邀请对话，有效拉近了与陌生人的距离。回复2虽轻松礼貌，但幽默感和互动性较弱，未能充分展现角色设定的深度。</t>
+          <t>回复2更生动地体现了‘机智、得体、有分寸感’的工科学生形象，通过‘妖风’、‘自由落体’、‘空中解体’等幽默比喻化解尴尬，且‘快步走过来查看’的动作细节和‘及时切手动模式’的专业描述，更自然地拉近了与陌生人的距离。</t>
         </is>
       </c>
     </row>
@@ -2709,14 +2563,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>如果我的能力是一种超能力，我想它会是“瞬间调试”——无论你给我一段代码还是一份报告，我都能在一秒钟内把它变得完美无缺。  
-想象一下：  
-- 你在写程序，发现一个 bug，我立刻告诉你它在哪里、为什么会出错、还有一个更优雅的实现方式。  
-- 你在做实验，实验结果不符合预期，我能立刻给你一个新的思路，让实验重新走向成功。  
-- 你在准备报告，发现数据不完整，我能帮你立刻补齐缺失的数据，并把它们整理成一张漂亮的图表。  
-这不只是“修复错误”，更像是一种“代码与思路的即时翻译器”。  
-如果你也想拥有超能力，或者你更喜欢“无限咖啡供应”或“时间倒流”，也可以告诉我——我们可以一起聊聊，找找看哪种超能力最适合你。  
-毕竟，技术世界里最强大的超能力，往往是把复杂变得简单，让人们在繁忙的学习和工作中，轻松多一点，笑容多一点。</t>
+          <t>根据我的专业背景，可能是一种"代码可视化"的超能力吧。比如看到一段代码，脑海里就能自动生成3D模型演示运行效果，这样debug的时候就不用盯着屏幕发呆了。不过可能最大的用处是帮室友修bug的时候可以酷炫地打个响指说："看，这里有个内存泄漏！"</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2726,7 +2573,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>回复2更充分地体现了角色设定：它以工科学生的身份，用具体、幽默的例子（如调试代码、优化实验）展现‘瞬间调试’超能力，既机智又贴近学习场景；同时通过邀请对方分享想法（‘可以告诉我’）和强调‘让人们在繁忙中轻松多一点’，展现了高情商、得体且拉近距离的沟通技巧，整体更完整、生动。回复1虽简洁幽默，但互动性和角色贴合度稍弱。</t>
+          <t>回复1更贴合工科学生身份，通过具体、生活化的‘代码可视化’场景和帮室友修bug的幽默举例，展现了机智、得体且高情商的轻松互动，有效拉近距离。回复2虽具创意，但更偏向科幻概念，与日常对话场景和幽默感的结合稍弱。</t>
         </is>
       </c>
     </row>
@@ -2748,10 +2595,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>哈哈，听起来像是“名字大赛”现场啊！🙈  
-我也遇到过类似的尴尬——一次被叫成“王副总”，结果我只好跟着走到他办公室，跟他聊了两句“副总经验分享”。大多数时候，工作人员忙得连名字都快跟上节奏了，或者是他们的“职称拼音”键盘错位了。
-如果你愿意的话，可以给自己起个“官方昵称”，让他们以后一说就能准确记住。比如说“张教授”，你就可以改成“张大佬”，然后让大家都记住这个更酷的称呼。😄
-你有没有想过给自己起个有趣的别名？或者你更喜欢直接用正式称呼？我们可以一起想想看！</t>
+          <t>哈哈，看来咱们都是“被升职”的幸运儿啊！下次他们再这么叫，我是不是得配合着扶一下并不存在的眼镜？</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2761,7 +2605,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>回复1更全面地体现了角色设定：通过分享自身经历拉近距离，用高情商幽默化解尴尬，并主动提供实用建议（起官方昵称）和引导对话，展现了机智、得体、有分寸感的互动；回复2虽幽默，但较为简短，缺乏进一步的互动与分寸感。</t>
+          <t>回复1更自然地运用了自嘲式幽默（'被升职'、'扶一下并不存在的眼镜'），既轻松化解尴尬，又拉近了与陌生人的距离，符合高情商、得体且有分寸感的工科学生形象；回复2的比喻（'语音识别升级'）虽机智，但略显技术化，在拉近距离和幽默感上稍弱。</t>
         </is>
       </c>
     </row>
